--- a/Star Regein/Star Regein/Earth.xlsx
+++ b/Star Regein/Star Regein/Earth.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Ster Regein\Star Regein\Star Regein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\StarRegain\Star Regein\Star Regein\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -72,1211 +72,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="165">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1821,7 +617,7 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2333,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -4413,49 +3209,49 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A30:AO40 A1:AN29">
-    <cfRule type="cellIs" dxfId="164" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:AO40 A1:AN29">
-    <cfRule type="cellIs" dxfId="161" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:AO40 A1:AN29">
-    <cfRule type="cellIs" dxfId="159" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:AO40 A1:AN29">
-    <cfRule type="cellIs" dxfId="157" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:AO40 A1:AN29">
-    <cfRule type="cellIs" dxfId="156" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:AO40 A1:AN29">
-    <cfRule type="cellIs" dxfId="155" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="154" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Star Regein/Star Regein/Earth.xlsx
+++ b/Star Regein/Star Regein/Earth.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\StarRegain\Star Regein\Star Regein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\恐れすぎた幽鬼\Star Regein\Star Regein\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -72,7 +72,113 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -194,8 +300,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="638175" y="428625"/>
-          <a:ext cx="4143376" cy="3762375"/>
+          <a:off x="728230" y="432089"/>
+          <a:ext cx="4524376" cy="3800475"/>
           <a:chOff x="647700" y="457200"/>
           <a:chExt cx="4143376" cy="3762375"/>
         </a:xfrm>
@@ -614,18 +720,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:AX50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="34" width="2.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>99</v>
       </c>
@@ -713,8 +816,71 @@
       <c r="AC1">
         <v>99</v>
       </c>
+      <c r="AD1">
+        <v>98</v>
+      </c>
+      <c r="AE1">
+        <v>98</v>
+      </c>
+      <c r="AF1">
+        <v>98</v>
+      </c>
+      <c r="AG1">
+        <v>98</v>
+      </c>
+      <c r="AH1">
+        <v>98</v>
+      </c>
+      <c r="AI1">
+        <v>98</v>
+      </c>
+      <c r="AJ1">
+        <v>98</v>
+      </c>
+      <c r="AK1">
+        <v>98</v>
+      </c>
+      <c r="AL1">
+        <v>98</v>
+      </c>
+      <c r="AM1">
+        <v>98</v>
+      </c>
+      <c r="AN1">
+        <v>98</v>
+      </c>
+      <c r="AO1">
+        <v>98</v>
+      </c>
+      <c r="AP1">
+        <v>98</v>
+      </c>
+      <c r="AQ1">
+        <v>98</v>
+      </c>
+      <c r="AR1">
+        <v>98</v>
+      </c>
+      <c r="AS1">
+        <v>98</v>
+      </c>
+      <c r="AT1">
+        <v>98</v>
+      </c>
+      <c r="AU1">
+        <v>98</v>
+      </c>
+      <c r="AV1">
+        <v>98</v>
+      </c>
+      <c r="AW1">
+        <v>98</v>
+      </c>
+      <c r="AX1">
+        <v>98</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>99</v>
       </c>
@@ -802,8 +968,71 @@
       <c r="AC2">
         <v>99</v>
       </c>
+      <c r="AD2">
+        <v>98</v>
+      </c>
+      <c r="AE2">
+        <v>98</v>
+      </c>
+      <c r="AF2">
+        <v>98</v>
+      </c>
+      <c r="AG2">
+        <v>98</v>
+      </c>
+      <c r="AH2">
+        <v>98</v>
+      </c>
+      <c r="AI2">
+        <v>98</v>
+      </c>
+      <c r="AJ2">
+        <v>98</v>
+      </c>
+      <c r="AK2">
+        <v>98</v>
+      </c>
+      <c r="AL2">
+        <v>98</v>
+      </c>
+      <c r="AM2">
+        <v>98</v>
+      </c>
+      <c r="AN2">
+        <v>98</v>
+      </c>
+      <c r="AO2">
+        <v>98</v>
+      </c>
+      <c r="AP2">
+        <v>98</v>
+      </c>
+      <c r="AQ2">
+        <v>98</v>
+      </c>
+      <c r="AR2">
+        <v>98</v>
+      </c>
+      <c r="AS2">
+        <v>98</v>
+      </c>
+      <c r="AT2">
+        <v>98</v>
+      </c>
+      <c r="AU2">
+        <v>98</v>
+      </c>
+      <c r="AV2">
+        <v>98</v>
+      </c>
+      <c r="AW2">
+        <v>98</v>
+      </c>
+      <c r="AX2">
+        <v>98</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>99</v>
       </c>
@@ -891,8 +1120,71 @@
       <c r="AC3">
         <v>99</v>
       </c>
+      <c r="AD3">
+        <v>98</v>
+      </c>
+      <c r="AE3">
+        <v>98</v>
+      </c>
+      <c r="AF3">
+        <v>98</v>
+      </c>
+      <c r="AG3">
+        <v>98</v>
+      </c>
+      <c r="AH3">
+        <v>98</v>
+      </c>
+      <c r="AI3">
+        <v>98</v>
+      </c>
+      <c r="AJ3">
+        <v>98</v>
+      </c>
+      <c r="AK3">
+        <v>98</v>
+      </c>
+      <c r="AL3">
+        <v>98</v>
+      </c>
+      <c r="AM3">
+        <v>98</v>
+      </c>
+      <c r="AN3">
+        <v>98</v>
+      </c>
+      <c r="AO3">
+        <v>98</v>
+      </c>
+      <c r="AP3">
+        <v>98</v>
+      </c>
+      <c r="AQ3">
+        <v>98</v>
+      </c>
+      <c r="AR3">
+        <v>98</v>
+      </c>
+      <c r="AS3">
+        <v>98</v>
+      </c>
+      <c r="AT3">
+        <v>98</v>
+      </c>
+      <c r="AU3">
+        <v>98</v>
+      </c>
+      <c r="AV3">
+        <v>98</v>
+      </c>
+      <c r="AW3">
+        <v>98</v>
+      </c>
+      <c r="AX3">
+        <v>98</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>99</v>
       </c>
@@ -980,8 +1272,71 @@
       <c r="AC4">
         <v>99</v>
       </c>
+      <c r="AD4">
+        <v>98</v>
+      </c>
+      <c r="AE4">
+        <v>98</v>
+      </c>
+      <c r="AF4">
+        <v>98</v>
+      </c>
+      <c r="AG4">
+        <v>98</v>
+      </c>
+      <c r="AH4">
+        <v>98</v>
+      </c>
+      <c r="AI4">
+        <v>98</v>
+      </c>
+      <c r="AJ4">
+        <v>98</v>
+      </c>
+      <c r="AK4">
+        <v>98</v>
+      </c>
+      <c r="AL4">
+        <v>98</v>
+      </c>
+      <c r="AM4">
+        <v>98</v>
+      </c>
+      <c r="AN4">
+        <v>98</v>
+      </c>
+      <c r="AO4">
+        <v>98</v>
+      </c>
+      <c r="AP4">
+        <v>98</v>
+      </c>
+      <c r="AQ4">
+        <v>98</v>
+      </c>
+      <c r="AR4">
+        <v>98</v>
+      </c>
+      <c r="AS4">
+        <v>98</v>
+      </c>
+      <c r="AT4">
+        <v>98</v>
+      </c>
+      <c r="AU4">
+        <v>98</v>
+      </c>
+      <c r="AV4">
+        <v>98</v>
+      </c>
+      <c r="AW4">
+        <v>98</v>
+      </c>
+      <c r="AX4">
+        <v>98</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>99</v>
       </c>
@@ -1069,8 +1424,71 @@
       <c r="AC5">
         <v>99</v>
       </c>
+      <c r="AD5">
+        <v>98</v>
+      </c>
+      <c r="AE5">
+        <v>98</v>
+      </c>
+      <c r="AF5">
+        <v>98</v>
+      </c>
+      <c r="AG5">
+        <v>98</v>
+      </c>
+      <c r="AH5">
+        <v>98</v>
+      </c>
+      <c r="AI5">
+        <v>98</v>
+      </c>
+      <c r="AJ5">
+        <v>98</v>
+      </c>
+      <c r="AK5">
+        <v>98</v>
+      </c>
+      <c r="AL5">
+        <v>98</v>
+      </c>
+      <c r="AM5">
+        <v>98</v>
+      </c>
+      <c r="AN5">
+        <v>98</v>
+      </c>
+      <c r="AO5">
+        <v>98</v>
+      </c>
+      <c r="AP5">
+        <v>98</v>
+      </c>
+      <c r="AQ5">
+        <v>98</v>
+      </c>
+      <c r="AR5">
+        <v>98</v>
+      </c>
+      <c r="AS5">
+        <v>98</v>
+      </c>
+      <c r="AT5">
+        <v>98</v>
+      </c>
+      <c r="AU5">
+        <v>98</v>
+      </c>
+      <c r="AV5">
+        <v>98</v>
+      </c>
+      <c r="AW5">
+        <v>98</v>
+      </c>
+      <c r="AX5">
+        <v>98</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>99</v>
       </c>
@@ -1158,8 +1576,71 @@
       <c r="AC6">
         <v>99</v>
       </c>
+      <c r="AD6">
+        <v>98</v>
+      </c>
+      <c r="AE6">
+        <v>98</v>
+      </c>
+      <c r="AF6">
+        <v>98</v>
+      </c>
+      <c r="AG6">
+        <v>98</v>
+      </c>
+      <c r="AH6">
+        <v>98</v>
+      </c>
+      <c r="AI6">
+        <v>98</v>
+      </c>
+      <c r="AJ6">
+        <v>98</v>
+      </c>
+      <c r="AK6">
+        <v>98</v>
+      </c>
+      <c r="AL6">
+        <v>98</v>
+      </c>
+      <c r="AM6">
+        <v>98</v>
+      </c>
+      <c r="AN6">
+        <v>98</v>
+      </c>
+      <c r="AO6">
+        <v>98</v>
+      </c>
+      <c r="AP6">
+        <v>98</v>
+      </c>
+      <c r="AQ6">
+        <v>98</v>
+      </c>
+      <c r="AR6">
+        <v>98</v>
+      </c>
+      <c r="AS6">
+        <v>98</v>
+      </c>
+      <c r="AT6">
+        <v>98</v>
+      </c>
+      <c r="AU6">
+        <v>98</v>
+      </c>
+      <c r="AV6">
+        <v>98</v>
+      </c>
+      <c r="AW6">
+        <v>98</v>
+      </c>
+      <c r="AX6">
+        <v>98</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>99</v>
       </c>
@@ -1247,8 +1728,71 @@
       <c r="AC7">
         <v>99</v>
       </c>
+      <c r="AD7">
+        <v>98</v>
+      </c>
+      <c r="AE7">
+        <v>98</v>
+      </c>
+      <c r="AF7">
+        <v>98</v>
+      </c>
+      <c r="AG7">
+        <v>98</v>
+      </c>
+      <c r="AH7">
+        <v>98</v>
+      </c>
+      <c r="AI7">
+        <v>98</v>
+      </c>
+      <c r="AJ7">
+        <v>98</v>
+      </c>
+      <c r="AK7">
+        <v>98</v>
+      </c>
+      <c r="AL7">
+        <v>98</v>
+      </c>
+      <c r="AM7">
+        <v>98</v>
+      </c>
+      <c r="AN7">
+        <v>98</v>
+      </c>
+      <c r="AO7">
+        <v>98</v>
+      </c>
+      <c r="AP7">
+        <v>98</v>
+      </c>
+      <c r="AQ7">
+        <v>98</v>
+      </c>
+      <c r="AR7">
+        <v>98</v>
+      </c>
+      <c r="AS7">
+        <v>98</v>
+      </c>
+      <c r="AT7">
+        <v>98</v>
+      </c>
+      <c r="AU7">
+        <v>98</v>
+      </c>
+      <c r="AV7">
+        <v>98</v>
+      </c>
+      <c r="AW7">
+        <v>98</v>
+      </c>
+      <c r="AX7">
+        <v>98</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>99</v>
       </c>
@@ -1336,8 +1880,71 @@
       <c r="AC8">
         <v>99</v>
       </c>
+      <c r="AD8">
+        <v>98</v>
+      </c>
+      <c r="AE8">
+        <v>98</v>
+      </c>
+      <c r="AF8">
+        <v>98</v>
+      </c>
+      <c r="AG8">
+        <v>98</v>
+      </c>
+      <c r="AH8">
+        <v>98</v>
+      </c>
+      <c r="AI8">
+        <v>98</v>
+      </c>
+      <c r="AJ8">
+        <v>98</v>
+      </c>
+      <c r="AK8">
+        <v>98</v>
+      </c>
+      <c r="AL8">
+        <v>98</v>
+      </c>
+      <c r="AM8">
+        <v>98</v>
+      </c>
+      <c r="AN8">
+        <v>98</v>
+      </c>
+      <c r="AO8">
+        <v>98</v>
+      </c>
+      <c r="AP8">
+        <v>98</v>
+      </c>
+      <c r="AQ8">
+        <v>98</v>
+      </c>
+      <c r="AR8">
+        <v>98</v>
+      </c>
+      <c r="AS8">
+        <v>98</v>
+      </c>
+      <c r="AT8">
+        <v>98</v>
+      </c>
+      <c r="AU8">
+        <v>98</v>
+      </c>
+      <c r="AV8">
+        <v>98</v>
+      </c>
+      <c r="AW8">
+        <v>98</v>
+      </c>
+      <c r="AX8">
+        <v>98</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>99</v>
       </c>
@@ -1425,8 +2032,71 @@
       <c r="AC9">
         <v>99</v>
       </c>
+      <c r="AD9">
+        <v>98</v>
+      </c>
+      <c r="AE9">
+        <v>98</v>
+      </c>
+      <c r="AF9">
+        <v>98</v>
+      </c>
+      <c r="AG9">
+        <v>98</v>
+      </c>
+      <c r="AH9">
+        <v>98</v>
+      </c>
+      <c r="AI9">
+        <v>98</v>
+      </c>
+      <c r="AJ9">
+        <v>98</v>
+      </c>
+      <c r="AK9">
+        <v>98</v>
+      </c>
+      <c r="AL9">
+        <v>98</v>
+      </c>
+      <c r="AM9">
+        <v>98</v>
+      </c>
+      <c r="AN9">
+        <v>98</v>
+      </c>
+      <c r="AO9">
+        <v>98</v>
+      </c>
+      <c r="AP9">
+        <v>98</v>
+      </c>
+      <c r="AQ9">
+        <v>98</v>
+      </c>
+      <c r="AR9">
+        <v>98</v>
+      </c>
+      <c r="AS9">
+        <v>98</v>
+      </c>
+      <c r="AT9">
+        <v>98</v>
+      </c>
+      <c r="AU9">
+        <v>98</v>
+      </c>
+      <c r="AV9">
+        <v>98</v>
+      </c>
+      <c r="AW9">
+        <v>98</v>
+      </c>
+      <c r="AX9">
+        <v>98</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>99</v>
       </c>
@@ -1514,8 +2184,71 @@
       <c r="AC10">
         <v>99</v>
       </c>
+      <c r="AD10">
+        <v>98</v>
+      </c>
+      <c r="AE10">
+        <v>98</v>
+      </c>
+      <c r="AF10">
+        <v>98</v>
+      </c>
+      <c r="AG10">
+        <v>98</v>
+      </c>
+      <c r="AH10">
+        <v>98</v>
+      </c>
+      <c r="AI10">
+        <v>98</v>
+      </c>
+      <c r="AJ10">
+        <v>98</v>
+      </c>
+      <c r="AK10">
+        <v>98</v>
+      </c>
+      <c r="AL10">
+        <v>98</v>
+      </c>
+      <c r="AM10">
+        <v>98</v>
+      </c>
+      <c r="AN10">
+        <v>98</v>
+      </c>
+      <c r="AO10">
+        <v>98</v>
+      </c>
+      <c r="AP10">
+        <v>98</v>
+      </c>
+      <c r="AQ10">
+        <v>98</v>
+      </c>
+      <c r="AR10">
+        <v>98</v>
+      </c>
+      <c r="AS10">
+        <v>98</v>
+      </c>
+      <c r="AT10">
+        <v>98</v>
+      </c>
+      <c r="AU10">
+        <v>98</v>
+      </c>
+      <c r="AV10">
+        <v>98</v>
+      </c>
+      <c r="AW10">
+        <v>98</v>
+      </c>
+      <c r="AX10">
+        <v>98</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>99</v>
       </c>
@@ -1603,8 +2336,71 @@
       <c r="AC11">
         <v>99</v>
       </c>
+      <c r="AD11">
+        <v>98</v>
+      </c>
+      <c r="AE11">
+        <v>98</v>
+      </c>
+      <c r="AF11">
+        <v>98</v>
+      </c>
+      <c r="AG11">
+        <v>98</v>
+      </c>
+      <c r="AH11">
+        <v>98</v>
+      </c>
+      <c r="AI11">
+        <v>98</v>
+      </c>
+      <c r="AJ11">
+        <v>98</v>
+      </c>
+      <c r="AK11">
+        <v>98</v>
+      </c>
+      <c r="AL11">
+        <v>98</v>
+      </c>
+      <c r="AM11">
+        <v>98</v>
+      </c>
+      <c r="AN11">
+        <v>98</v>
+      </c>
+      <c r="AO11">
+        <v>98</v>
+      </c>
+      <c r="AP11">
+        <v>98</v>
+      </c>
+      <c r="AQ11">
+        <v>98</v>
+      </c>
+      <c r="AR11">
+        <v>98</v>
+      </c>
+      <c r="AS11">
+        <v>98</v>
+      </c>
+      <c r="AT11">
+        <v>98</v>
+      </c>
+      <c r="AU11">
+        <v>98</v>
+      </c>
+      <c r="AV11">
+        <v>98</v>
+      </c>
+      <c r="AW11">
+        <v>98</v>
+      </c>
+      <c r="AX11">
+        <v>98</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>99</v>
       </c>
@@ -1692,8 +2488,71 @@
       <c r="AC12">
         <v>99</v>
       </c>
+      <c r="AD12">
+        <v>98</v>
+      </c>
+      <c r="AE12">
+        <v>98</v>
+      </c>
+      <c r="AF12">
+        <v>98</v>
+      </c>
+      <c r="AG12">
+        <v>98</v>
+      </c>
+      <c r="AH12">
+        <v>98</v>
+      </c>
+      <c r="AI12">
+        <v>98</v>
+      </c>
+      <c r="AJ12">
+        <v>98</v>
+      </c>
+      <c r="AK12">
+        <v>98</v>
+      </c>
+      <c r="AL12">
+        <v>98</v>
+      </c>
+      <c r="AM12">
+        <v>98</v>
+      </c>
+      <c r="AN12">
+        <v>98</v>
+      </c>
+      <c r="AO12">
+        <v>98</v>
+      </c>
+      <c r="AP12">
+        <v>98</v>
+      </c>
+      <c r="AQ12">
+        <v>98</v>
+      </c>
+      <c r="AR12">
+        <v>98</v>
+      </c>
+      <c r="AS12">
+        <v>98</v>
+      </c>
+      <c r="AT12">
+        <v>98</v>
+      </c>
+      <c r="AU12">
+        <v>98</v>
+      </c>
+      <c r="AV12">
+        <v>98</v>
+      </c>
+      <c r="AW12">
+        <v>98</v>
+      </c>
+      <c r="AX12">
+        <v>98</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>99</v>
       </c>
@@ -1781,8 +2640,71 @@
       <c r="AC13">
         <v>99</v>
       </c>
+      <c r="AD13">
+        <v>98</v>
+      </c>
+      <c r="AE13">
+        <v>98</v>
+      </c>
+      <c r="AF13">
+        <v>98</v>
+      </c>
+      <c r="AG13">
+        <v>98</v>
+      </c>
+      <c r="AH13">
+        <v>98</v>
+      </c>
+      <c r="AI13">
+        <v>98</v>
+      </c>
+      <c r="AJ13">
+        <v>98</v>
+      </c>
+      <c r="AK13">
+        <v>98</v>
+      </c>
+      <c r="AL13">
+        <v>98</v>
+      </c>
+      <c r="AM13">
+        <v>98</v>
+      </c>
+      <c r="AN13">
+        <v>98</v>
+      </c>
+      <c r="AO13">
+        <v>98</v>
+      </c>
+      <c r="AP13">
+        <v>98</v>
+      </c>
+      <c r="AQ13">
+        <v>98</v>
+      </c>
+      <c r="AR13">
+        <v>98</v>
+      </c>
+      <c r="AS13">
+        <v>98</v>
+      </c>
+      <c r="AT13">
+        <v>98</v>
+      </c>
+      <c r="AU13">
+        <v>98</v>
+      </c>
+      <c r="AV13">
+        <v>98</v>
+      </c>
+      <c r="AW13">
+        <v>98</v>
+      </c>
+      <c r="AX13">
+        <v>98</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>99</v>
       </c>
@@ -1870,8 +2792,71 @@
       <c r="AC14">
         <v>99</v>
       </c>
+      <c r="AD14">
+        <v>98</v>
+      </c>
+      <c r="AE14">
+        <v>98</v>
+      </c>
+      <c r="AF14">
+        <v>98</v>
+      </c>
+      <c r="AG14">
+        <v>98</v>
+      </c>
+      <c r="AH14">
+        <v>98</v>
+      </c>
+      <c r="AI14">
+        <v>98</v>
+      </c>
+      <c r="AJ14">
+        <v>98</v>
+      </c>
+      <c r="AK14">
+        <v>98</v>
+      </c>
+      <c r="AL14">
+        <v>98</v>
+      </c>
+      <c r="AM14">
+        <v>98</v>
+      </c>
+      <c r="AN14">
+        <v>98</v>
+      </c>
+      <c r="AO14">
+        <v>98</v>
+      </c>
+      <c r="AP14">
+        <v>98</v>
+      </c>
+      <c r="AQ14">
+        <v>98</v>
+      </c>
+      <c r="AR14">
+        <v>98</v>
+      </c>
+      <c r="AS14">
+        <v>98</v>
+      </c>
+      <c r="AT14">
+        <v>98</v>
+      </c>
+      <c r="AU14">
+        <v>98</v>
+      </c>
+      <c r="AV14">
+        <v>98</v>
+      </c>
+      <c r="AW14">
+        <v>98</v>
+      </c>
+      <c r="AX14">
+        <v>98</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>99</v>
       </c>
@@ -1959,8 +2944,71 @@
       <c r="AC15">
         <v>99</v>
       </c>
+      <c r="AD15">
+        <v>98</v>
+      </c>
+      <c r="AE15">
+        <v>98</v>
+      </c>
+      <c r="AF15">
+        <v>98</v>
+      </c>
+      <c r="AG15">
+        <v>98</v>
+      </c>
+      <c r="AH15">
+        <v>98</v>
+      </c>
+      <c r="AI15">
+        <v>98</v>
+      </c>
+      <c r="AJ15">
+        <v>98</v>
+      </c>
+      <c r="AK15">
+        <v>98</v>
+      </c>
+      <c r="AL15">
+        <v>98</v>
+      </c>
+      <c r="AM15">
+        <v>98</v>
+      </c>
+      <c r="AN15">
+        <v>98</v>
+      </c>
+      <c r="AO15">
+        <v>98</v>
+      </c>
+      <c r="AP15">
+        <v>98</v>
+      </c>
+      <c r="AQ15">
+        <v>98</v>
+      </c>
+      <c r="AR15">
+        <v>98</v>
+      </c>
+      <c r="AS15">
+        <v>98</v>
+      </c>
+      <c r="AT15">
+        <v>98</v>
+      </c>
+      <c r="AU15">
+        <v>98</v>
+      </c>
+      <c r="AV15">
+        <v>98</v>
+      </c>
+      <c r="AW15">
+        <v>98</v>
+      </c>
+      <c r="AX15">
+        <v>98</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>99</v>
       </c>
@@ -2048,8 +3096,71 @@
       <c r="AC16">
         <v>99</v>
       </c>
+      <c r="AD16">
+        <v>98</v>
+      </c>
+      <c r="AE16">
+        <v>98</v>
+      </c>
+      <c r="AF16">
+        <v>98</v>
+      </c>
+      <c r="AG16">
+        <v>98</v>
+      </c>
+      <c r="AH16">
+        <v>98</v>
+      </c>
+      <c r="AI16">
+        <v>98</v>
+      </c>
+      <c r="AJ16">
+        <v>98</v>
+      </c>
+      <c r="AK16">
+        <v>98</v>
+      </c>
+      <c r="AL16">
+        <v>98</v>
+      </c>
+      <c r="AM16">
+        <v>98</v>
+      </c>
+      <c r="AN16">
+        <v>98</v>
+      </c>
+      <c r="AO16">
+        <v>98</v>
+      </c>
+      <c r="AP16">
+        <v>98</v>
+      </c>
+      <c r="AQ16">
+        <v>98</v>
+      </c>
+      <c r="AR16">
+        <v>98</v>
+      </c>
+      <c r="AS16">
+        <v>98</v>
+      </c>
+      <c r="AT16">
+        <v>98</v>
+      </c>
+      <c r="AU16">
+        <v>98</v>
+      </c>
+      <c r="AV16">
+        <v>98</v>
+      </c>
+      <c r="AW16">
+        <v>98</v>
+      </c>
+      <c r="AX16">
+        <v>98</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>99</v>
       </c>
@@ -2137,8 +3248,71 @@
       <c r="AC17">
         <v>99</v>
       </c>
+      <c r="AD17">
+        <v>98</v>
+      </c>
+      <c r="AE17">
+        <v>98</v>
+      </c>
+      <c r="AF17">
+        <v>98</v>
+      </c>
+      <c r="AG17">
+        <v>98</v>
+      </c>
+      <c r="AH17">
+        <v>98</v>
+      </c>
+      <c r="AI17">
+        <v>98</v>
+      </c>
+      <c r="AJ17">
+        <v>98</v>
+      </c>
+      <c r="AK17">
+        <v>98</v>
+      </c>
+      <c r="AL17">
+        <v>98</v>
+      </c>
+      <c r="AM17">
+        <v>98</v>
+      </c>
+      <c r="AN17">
+        <v>98</v>
+      </c>
+      <c r="AO17">
+        <v>98</v>
+      </c>
+      <c r="AP17">
+        <v>98</v>
+      </c>
+      <c r="AQ17">
+        <v>98</v>
+      </c>
+      <c r="AR17">
+        <v>98</v>
+      </c>
+      <c r="AS17">
+        <v>98</v>
+      </c>
+      <c r="AT17">
+        <v>98</v>
+      </c>
+      <c r="AU17">
+        <v>98</v>
+      </c>
+      <c r="AV17">
+        <v>98</v>
+      </c>
+      <c r="AW17">
+        <v>98</v>
+      </c>
+      <c r="AX17">
+        <v>98</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>99</v>
       </c>
@@ -2226,8 +3400,71 @@
       <c r="AC18">
         <v>99</v>
       </c>
+      <c r="AD18">
+        <v>98</v>
+      </c>
+      <c r="AE18">
+        <v>98</v>
+      </c>
+      <c r="AF18">
+        <v>98</v>
+      </c>
+      <c r="AG18">
+        <v>98</v>
+      </c>
+      <c r="AH18">
+        <v>98</v>
+      </c>
+      <c r="AI18">
+        <v>98</v>
+      </c>
+      <c r="AJ18">
+        <v>98</v>
+      </c>
+      <c r="AK18">
+        <v>98</v>
+      </c>
+      <c r="AL18">
+        <v>98</v>
+      </c>
+      <c r="AM18">
+        <v>98</v>
+      </c>
+      <c r="AN18">
+        <v>98</v>
+      </c>
+      <c r="AO18">
+        <v>98</v>
+      </c>
+      <c r="AP18">
+        <v>98</v>
+      </c>
+      <c r="AQ18">
+        <v>98</v>
+      </c>
+      <c r="AR18">
+        <v>98</v>
+      </c>
+      <c r="AS18">
+        <v>98</v>
+      </c>
+      <c r="AT18">
+        <v>98</v>
+      </c>
+      <c r="AU18">
+        <v>98</v>
+      </c>
+      <c r="AV18">
+        <v>98</v>
+      </c>
+      <c r="AW18">
+        <v>98</v>
+      </c>
+      <c r="AX18">
+        <v>98</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>99</v>
       </c>
@@ -2315,8 +3552,71 @@
       <c r="AC19">
         <v>99</v>
       </c>
+      <c r="AD19">
+        <v>98</v>
+      </c>
+      <c r="AE19">
+        <v>98</v>
+      </c>
+      <c r="AF19">
+        <v>98</v>
+      </c>
+      <c r="AG19">
+        <v>98</v>
+      </c>
+      <c r="AH19">
+        <v>98</v>
+      </c>
+      <c r="AI19">
+        <v>98</v>
+      </c>
+      <c r="AJ19">
+        <v>98</v>
+      </c>
+      <c r="AK19">
+        <v>98</v>
+      </c>
+      <c r="AL19">
+        <v>98</v>
+      </c>
+      <c r="AM19">
+        <v>98</v>
+      </c>
+      <c r="AN19">
+        <v>98</v>
+      </c>
+      <c r="AO19">
+        <v>98</v>
+      </c>
+      <c r="AP19">
+        <v>98</v>
+      </c>
+      <c r="AQ19">
+        <v>98</v>
+      </c>
+      <c r="AR19">
+        <v>98</v>
+      </c>
+      <c r="AS19">
+        <v>98</v>
+      </c>
+      <c r="AT19">
+        <v>98</v>
+      </c>
+      <c r="AU19">
+        <v>98</v>
+      </c>
+      <c r="AV19">
+        <v>98</v>
+      </c>
+      <c r="AW19">
+        <v>98</v>
+      </c>
+      <c r="AX19">
+        <v>98</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>99</v>
       </c>
@@ -2404,8 +3704,71 @@
       <c r="AC20">
         <v>99</v>
       </c>
+      <c r="AD20">
+        <v>98</v>
+      </c>
+      <c r="AE20">
+        <v>98</v>
+      </c>
+      <c r="AF20">
+        <v>98</v>
+      </c>
+      <c r="AG20">
+        <v>98</v>
+      </c>
+      <c r="AH20">
+        <v>98</v>
+      </c>
+      <c r="AI20">
+        <v>98</v>
+      </c>
+      <c r="AJ20">
+        <v>98</v>
+      </c>
+      <c r="AK20">
+        <v>98</v>
+      </c>
+      <c r="AL20">
+        <v>98</v>
+      </c>
+      <c r="AM20">
+        <v>98</v>
+      </c>
+      <c r="AN20">
+        <v>98</v>
+      </c>
+      <c r="AO20">
+        <v>98</v>
+      </c>
+      <c r="AP20">
+        <v>98</v>
+      </c>
+      <c r="AQ20">
+        <v>98</v>
+      </c>
+      <c r="AR20">
+        <v>98</v>
+      </c>
+      <c r="AS20">
+        <v>98</v>
+      </c>
+      <c r="AT20">
+        <v>98</v>
+      </c>
+      <c r="AU20">
+        <v>98</v>
+      </c>
+      <c r="AV20">
+        <v>98</v>
+      </c>
+      <c r="AW20">
+        <v>98</v>
+      </c>
+      <c r="AX20">
+        <v>98</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>99</v>
       </c>
@@ -2493,8 +3856,71 @@
       <c r="AC21">
         <v>99</v>
       </c>
+      <c r="AD21">
+        <v>98</v>
+      </c>
+      <c r="AE21">
+        <v>98</v>
+      </c>
+      <c r="AF21">
+        <v>98</v>
+      </c>
+      <c r="AG21">
+        <v>98</v>
+      </c>
+      <c r="AH21">
+        <v>98</v>
+      </c>
+      <c r="AI21">
+        <v>98</v>
+      </c>
+      <c r="AJ21">
+        <v>98</v>
+      </c>
+      <c r="AK21">
+        <v>98</v>
+      </c>
+      <c r="AL21">
+        <v>98</v>
+      </c>
+      <c r="AM21">
+        <v>98</v>
+      </c>
+      <c r="AN21">
+        <v>98</v>
+      </c>
+      <c r="AO21">
+        <v>98</v>
+      </c>
+      <c r="AP21">
+        <v>98</v>
+      </c>
+      <c r="AQ21">
+        <v>98</v>
+      </c>
+      <c r="AR21">
+        <v>98</v>
+      </c>
+      <c r="AS21">
+        <v>98</v>
+      </c>
+      <c r="AT21">
+        <v>98</v>
+      </c>
+      <c r="AU21">
+        <v>98</v>
+      </c>
+      <c r="AV21">
+        <v>98</v>
+      </c>
+      <c r="AW21">
+        <v>98</v>
+      </c>
+      <c r="AX21">
+        <v>98</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>99</v>
       </c>
@@ -2582,8 +4008,71 @@
       <c r="AC22">
         <v>99</v>
       </c>
+      <c r="AD22">
+        <v>98</v>
+      </c>
+      <c r="AE22">
+        <v>98</v>
+      </c>
+      <c r="AF22">
+        <v>98</v>
+      </c>
+      <c r="AG22">
+        <v>98</v>
+      </c>
+      <c r="AH22">
+        <v>98</v>
+      </c>
+      <c r="AI22">
+        <v>98</v>
+      </c>
+      <c r="AJ22">
+        <v>98</v>
+      </c>
+      <c r="AK22">
+        <v>98</v>
+      </c>
+      <c r="AL22">
+        <v>98</v>
+      </c>
+      <c r="AM22">
+        <v>98</v>
+      </c>
+      <c r="AN22">
+        <v>98</v>
+      </c>
+      <c r="AO22">
+        <v>98</v>
+      </c>
+      <c r="AP22">
+        <v>98</v>
+      </c>
+      <c r="AQ22">
+        <v>98</v>
+      </c>
+      <c r="AR22">
+        <v>98</v>
+      </c>
+      <c r="AS22">
+        <v>98</v>
+      </c>
+      <c r="AT22">
+        <v>98</v>
+      </c>
+      <c r="AU22">
+        <v>98</v>
+      </c>
+      <c r="AV22">
+        <v>98</v>
+      </c>
+      <c r="AW22">
+        <v>98</v>
+      </c>
+      <c r="AX22">
+        <v>98</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>99</v>
       </c>
@@ -2671,8 +4160,71 @@
       <c r="AC23">
         <v>99</v>
       </c>
+      <c r="AD23">
+        <v>98</v>
+      </c>
+      <c r="AE23">
+        <v>98</v>
+      </c>
+      <c r="AF23">
+        <v>98</v>
+      </c>
+      <c r="AG23">
+        <v>98</v>
+      </c>
+      <c r="AH23">
+        <v>98</v>
+      </c>
+      <c r="AI23">
+        <v>98</v>
+      </c>
+      <c r="AJ23">
+        <v>98</v>
+      </c>
+      <c r="AK23">
+        <v>98</v>
+      </c>
+      <c r="AL23">
+        <v>98</v>
+      </c>
+      <c r="AM23">
+        <v>98</v>
+      </c>
+      <c r="AN23">
+        <v>98</v>
+      </c>
+      <c r="AO23">
+        <v>98</v>
+      </c>
+      <c r="AP23">
+        <v>98</v>
+      </c>
+      <c r="AQ23">
+        <v>98</v>
+      </c>
+      <c r="AR23">
+        <v>98</v>
+      </c>
+      <c r="AS23">
+        <v>98</v>
+      </c>
+      <c r="AT23">
+        <v>98</v>
+      </c>
+      <c r="AU23">
+        <v>98</v>
+      </c>
+      <c r="AV23">
+        <v>98</v>
+      </c>
+      <c r="AW23">
+        <v>98</v>
+      </c>
+      <c r="AX23">
+        <v>98</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>99</v>
       </c>
@@ -2760,8 +4312,71 @@
       <c r="AC24">
         <v>99</v>
       </c>
+      <c r="AD24">
+        <v>98</v>
+      </c>
+      <c r="AE24">
+        <v>98</v>
+      </c>
+      <c r="AF24">
+        <v>98</v>
+      </c>
+      <c r="AG24">
+        <v>98</v>
+      </c>
+      <c r="AH24">
+        <v>98</v>
+      </c>
+      <c r="AI24">
+        <v>98</v>
+      </c>
+      <c r="AJ24">
+        <v>98</v>
+      </c>
+      <c r="AK24">
+        <v>98</v>
+      </c>
+      <c r="AL24">
+        <v>98</v>
+      </c>
+      <c r="AM24">
+        <v>98</v>
+      </c>
+      <c r="AN24">
+        <v>98</v>
+      </c>
+      <c r="AO24">
+        <v>98</v>
+      </c>
+      <c r="AP24">
+        <v>98</v>
+      </c>
+      <c r="AQ24">
+        <v>98</v>
+      </c>
+      <c r="AR24">
+        <v>98</v>
+      </c>
+      <c r="AS24">
+        <v>98</v>
+      </c>
+      <c r="AT24">
+        <v>98</v>
+      </c>
+      <c r="AU24">
+        <v>98</v>
+      </c>
+      <c r="AV24">
+        <v>98</v>
+      </c>
+      <c r="AW24">
+        <v>98</v>
+      </c>
+      <c r="AX24">
+        <v>98</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>99</v>
       </c>
@@ -2849,8 +4464,71 @@
       <c r="AC25">
         <v>99</v>
       </c>
+      <c r="AD25">
+        <v>98</v>
+      </c>
+      <c r="AE25">
+        <v>98</v>
+      </c>
+      <c r="AF25">
+        <v>98</v>
+      </c>
+      <c r="AG25">
+        <v>98</v>
+      </c>
+      <c r="AH25">
+        <v>98</v>
+      </c>
+      <c r="AI25">
+        <v>98</v>
+      </c>
+      <c r="AJ25">
+        <v>98</v>
+      </c>
+      <c r="AK25">
+        <v>98</v>
+      </c>
+      <c r="AL25">
+        <v>98</v>
+      </c>
+      <c r="AM25">
+        <v>98</v>
+      </c>
+      <c r="AN25">
+        <v>98</v>
+      </c>
+      <c r="AO25">
+        <v>98</v>
+      </c>
+      <c r="AP25">
+        <v>98</v>
+      </c>
+      <c r="AQ25">
+        <v>98</v>
+      </c>
+      <c r="AR25">
+        <v>98</v>
+      </c>
+      <c r="AS25">
+        <v>98</v>
+      </c>
+      <c r="AT25">
+        <v>98</v>
+      </c>
+      <c r="AU25">
+        <v>98</v>
+      </c>
+      <c r="AV25">
+        <v>98</v>
+      </c>
+      <c r="AW25">
+        <v>98</v>
+      </c>
+      <c r="AX25">
+        <v>98</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>99</v>
       </c>
@@ -2938,8 +4616,71 @@
       <c r="AC26">
         <v>99</v>
       </c>
+      <c r="AD26">
+        <v>98</v>
+      </c>
+      <c r="AE26">
+        <v>98</v>
+      </c>
+      <c r="AF26">
+        <v>98</v>
+      </c>
+      <c r="AG26">
+        <v>98</v>
+      </c>
+      <c r="AH26">
+        <v>98</v>
+      </c>
+      <c r="AI26">
+        <v>98</v>
+      </c>
+      <c r="AJ26">
+        <v>98</v>
+      </c>
+      <c r="AK26">
+        <v>98</v>
+      </c>
+      <c r="AL26">
+        <v>98</v>
+      </c>
+      <c r="AM26">
+        <v>98</v>
+      </c>
+      <c r="AN26">
+        <v>98</v>
+      </c>
+      <c r="AO26">
+        <v>98</v>
+      </c>
+      <c r="AP26">
+        <v>98</v>
+      </c>
+      <c r="AQ26">
+        <v>98</v>
+      </c>
+      <c r="AR26">
+        <v>98</v>
+      </c>
+      <c r="AS26">
+        <v>98</v>
+      </c>
+      <c r="AT26">
+        <v>98</v>
+      </c>
+      <c r="AU26">
+        <v>98</v>
+      </c>
+      <c r="AV26">
+        <v>98</v>
+      </c>
+      <c r="AW26">
+        <v>98</v>
+      </c>
+      <c r="AX26">
+        <v>98</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>99</v>
       </c>
@@ -3027,8 +4768,71 @@
       <c r="AC27">
         <v>99</v>
       </c>
+      <c r="AD27">
+        <v>98</v>
+      </c>
+      <c r="AE27">
+        <v>98</v>
+      </c>
+      <c r="AF27">
+        <v>98</v>
+      </c>
+      <c r="AG27">
+        <v>98</v>
+      </c>
+      <c r="AH27">
+        <v>98</v>
+      </c>
+      <c r="AI27">
+        <v>98</v>
+      </c>
+      <c r="AJ27">
+        <v>98</v>
+      </c>
+      <c r="AK27">
+        <v>98</v>
+      </c>
+      <c r="AL27">
+        <v>98</v>
+      </c>
+      <c r="AM27">
+        <v>98</v>
+      </c>
+      <c r="AN27">
+        <v>98</v>
+      </c>
+      <c r="AO27">
+        <v>98</v>
+      </c>
+      <c r="AP27">
+        <v>98</v>
+      </c>
+      <c r="AQ27">
+        <v>98</v>
+      </c>
+      <c r="AR27">
+        <v>98</v>
+      </c>
+      <c r="AS27">
+        <v>98</v>
+      </c>
+      <c r="AT27">
+        <v>98</v>
+      </c>
+      <c r="AU27">
+        <v>98</v>
+      </c>
+      <c r="AV27">
+        <v>98</v>
+      </c>
+      <c r="AW27">
+        <v>98</v>
+      </c>
+      <c r="AX27">
+        <v>98</v>
+      </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>99</v>
       </c>
@@ -3116,8 +4920,71 @@
       <c r="AC28">
         <v>99</v>
       </c>
+      <c r="AD28">
+        <v>98</v>
+      </c>
+      <c r="AE28">
+        <v>98</v>
+      </c>
+      <c r="AF28">
+        <v>98</v>
+      </c>
+      <c r="AG28">
+        <v>98</v>
+      </c>
+      <c r="AH28">
+        <v>98</v>
+      </c>
+      <c r="AI28">
+        <v>98</v>
+      </c>
+      <c r="AJ28">
+        <v>98</v>
+      </c>
+      <c r="AK28">
+        <v>98</v>
+      </c>
+      <c r="AL28">
+        <v>98</v>
+      </c>
+      <c r="AM28">
+        <v>98</v>
+      </c>
+      <c r="AN28">
+        <v>98</v>
+      </c>
+      <c r="AO28">
+        <v>98</v>
+      </c>
+      <c r="AP28">
+        <v>98</v>
+      </c>
+      <c r="AQ28">
+        <v>98</v>
+      </c>
+      <c r="AR28">
+        <v>98</v>
+      </c>
+      <c r="AS28">
+        <v>98</v>
+      </c>
+      <c r="AT28">
+        <v>98</v>
+      </c>
+      <c r="AU28">
+        <v>98</v>
+      </c>
+      <c r="AV28">
+        <v>98</v>
+      </c>
+      <c r="AW28">
+        <v>98</v>
+      </c>
+      <c r="AX28">
+        <v>98</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>99</v>
       </c>
@@ -3204,54 +5071,3309 @@
       </c>
       <c r="AC29">
         <v>99</v>
+      </c>
+      <c r="AD29">
+        <v>98</v>
+      </c>
+      <c r="AE29">
+        <v>98</v>
+      </c>
+      <c r="AF29">
+        <v>98</v>
+      </c>
+      <c r="AG29">
+        <v>98</v>
+      </c>
+      <c r="AH29">
+        <v>98</v>
+      </c>
+      <c r="AI29">
+        <v>98</v>
+      </c>
+      <c r="AJ29">
+        <v>98</v>
+      </c>
+      <c r="AK29">
+        <v>98</v>
+      </c>
+      <c r="AL29">
+        <v>98</v>
+      </c>
+      <c r="AM29">
+        <v>98</v>
+      </c>
+      <c r="AN29">
+        <v>98</v>
+      </c>
+      <c r="AO29">
+        <v>98</v>
+      </c>
+      <c r="AP29">
+        <v>98</v>
+      </c>
+      <c r="AQ29">
+        <v>98</v>
+      </c>
+      <c r="AR29">
+        <v>98</v>
+      </c>
+      <c r="AS29">
+        <v>98</v>
+      </c>
+      <c r="AT29">
+        <v>98</v>
+      </c>
+      <c r="AU29">
+        <v>98</v>
+      </c>
+      <c r="AV29">
+        <v>98</v>
+      </c>
+      <c r="AW29">
+        <v>98</v>
+      </c>
+      <c r="AX29">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>98</v>
+      </c>
+      <c r="B30">
+        <v>98</v>
+      </c>
+      <c r="C30">
+        <v>98</v>
+      </c>
+      <c r="D30">
+        <v>98</v>
+      </c>
+      <c r="E30">
+        <v>98</v>
+      </c>
+      <c r="F30">
+        <v>98</v>
+      </c>
+      <c r="G30">
+        <v>98</v>
+      </c>
+      <c r="H30">
+        <v>98</v>
+      </c>
+      <c r="I30">
+        <v>98</v>
+      </c>
+      <c r="J30">
+        <v>98</v>
+      </c>
+      <c r="K30">
+        <v>98</v>
+      </c>
+      <c r="L30">
+        <v>98</v>
+      </c>
+      <c r="M30">
+        <v>98</v>
+      </c>
+      <c r="N30">
+        <v>98</v>
+      </c>
+      <c r="O30">
+        <v>98</v>
+      </c>
+      <c r="P30">
+        <v>98</v>
+      </c>
+      <c r="Q30">
+        <v>98</v>
+      </c>
+      <c r="R30">
+        <v>98</v>
+      </c>
+      <c r="S30">
+        <v>98</v>
+      </c>
+      <c r="T30">
+        <v>98</v>
+      </c>
+      <c r="U30">
+        <v>98</v>
+      </c>
+      <c r="V30">
+        <v>98</v>
+      </c>
+      <c r="W30">
+        <v>98</v>
+      </c>
+      <c r="X30">
+        <v>98</v>
+      </c>
+      <c r="Y30">
+        <v>98</v>
+      </c>
+      <c r="Z30">
+        <v>98</v>
+      </c>
+      <c r="AA30">
+        <v>98</v>
+      </c>
+      <c r="AB30">
+        <v>98</v>
+      </c>
+      <c r="AC30">
+        <v>98</v>
+      </c>
+      <c r="AD30">
+        <v>98</v>
+      </c>
+      <c r="AE30">
+        <v>98</v>
+      </c>
+      <c r="AF30">
+        <v>98</v>
+      </c>
+      <c r="AG30">
+        <v>98</v>
+      </c>
+      <c r="AH30">
+        <v>98</v>
+      </c>
+      <c r="AI30">
+        <v>98</v>
+      </c>
+      <c r="AJ30">
+        <v>98</v>
+      </c>
+      <c r="AK30">
+        <v>98</v>
+      </c>
+      <c r="AL30">
+        <v>98</v>
+      </c>
+      <c r="AM30">
+        <v>98</v>
+      </c>
+      <c r="AN30">
+        <v>98</v>
+      </c>
+      <c r="AO30">
+        <v>98</v>
+      </c>
+      <c r="AP30">
+        <v>98</v>
+      </c>
+      <c r="AQ30">
+        <v>98</v>
+      </c>
+      <c r="AR30">
+        <v>98</v>
+      </c>
+      <c r="AS30">
+        <v>98</v>
+      </c>
+      <c r="AT30">
+        <v>98</v>
+      </c>
+      <c r="AU30">
+        <v>98</v>
+      </c>
+      <c r="AV30">
+        <v>98</v>
+      </c>
+      <c r="AW30">
+        <v>98</v>
+      </c>
+      <c r="AX30">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>98</v>
+      </c>
+      <c r="B31">
+        <v>98</v>
+      </c>
+      <c r="C31">
+        <v>98</v>
+      </c>
+      <c r="D31">
+        <v>98</v>
+      </c>
+      <c r="E31">
+        <v>98</v>
+      </c>
+      <c r="F31">
+        <v>98</v>
+      </c>
+      <c r="G31">
+        <v>98</v>
+      </c>
+      <c r="H31">
+        <v>98</v>
+      </c>
+      <c r="I31">
+        <v>98</v>
+      </c>
+      <c r="J31">
+        <v>98</v>
+      </c>
+      <c r="K31">
+        <v>98</v>
+      </c>
+      <c r="L31">
+        <v>98</v>
+      </c>
+      <c r="M31">
+        <v>98</v>
+      </c>
+      <c r="N31">
+        <v>98</v>
+      </c>
+      <c r="O31">
+        <v>98</v>
+      </c>
+      <c r="P31">
+        <v>98</v>
+      </c>
+      <c r="Q31">
+        <v>98</v>
+      </c>
+      <c r="R31">
+        <v>98</v>
+      </c>
+      <c r="S31">
+        <v>98</v>
+      </c>
+      <c r="T31">
+        <v>98</v>
+      </c>
+      <c r="U31">
+        <v>98</v>
+      </c>
+      <c r="V31">
+        <v>98</v>
+      </c>
+      <c r="W31">
+        <v>98</v>
+      </c>
+      <c r="X31">
+        <v>98</v>
+      </c>
+      <c r="Y31">
+        <v>98</v>
+      </c>
+      <c r="Z31">
+        <v>98</v>
+      </c>
+      <c r="AA31">
+        <v>98</v>
+      </c>
+      <c r="AB31">
+        <v>98</v>
+      </c>
+      <c r="AC31">
+        <v>98</v>
+      </c>
+      <c r="AD31">
+        <v>98</v>
+      </c>
+      <c r="AE31">
+        <v>98</v>
+      </c>
+      <c r="AF31">
+        <v>98</v>
+      </c>
+      <c r="AG31">
+        <v>98</v>
+      </c>
+      <c r="AH31">
+        <v>98</v>
+      </c>
+      <c r="AI31">
+        <v>98</v>
+      </c>
+      <c r="AJ31">
+        <v>98</v>
+      </c>
+      <c r="AK31">
+        <v>98</v>
+      </c>
+      <c r="AL31">
+        <v>98</v>
+      </c>
+      <c r="AM31">
+        <v>98</v>
+      </c>
+      <c r="AN31">
+        <v>98</v>
+      </c>
+      <c r="AO31">
+        <v>98</v>
+      </c>
+      <c r="AP31">
+        <v>98</v>
+      </c>
+      <c r="AQ31">
+        <v>98</v>
+      </c>
+      <c r="AR31">
+        <v>98</v>
+      </c>
+      <c r="AS31">
+        <v>98</v>
+      </c>
+      <c r="AT31">
+        <v>98</v>
+      </c>
+      <c r="AU31">
+        <v>98</v>
+      </c>
+      <c r="AV31">
+        <v>98</v>
+      </c>
+      <c r="AW31">
+        <v>98</v>
+      </c>
+      <c r="AX31">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>98</v>
+      </c>
+      <c r="B32">
+        <v>98</v>
+      </c>
+      <c r="C32">
+        <v>98</v>
+      </c>
+      <c r="D32">
+        <v>98</v>
+      </c>
+      <c r="E32">
+        <v>98</v>
+      </c>
+      <c r="F32">
+        <v>98</v>
+      </c>
+      <c r="G32">
+        <v>98</v>
+      </c>
+      <c r="H32">
+        <v>98</v>
+      </c>
+      <c r="I32">
+        <v>98</v>
+      </c>
+      <c r="J32">
+        <v>98</v>
+      </c>
+      <c r="K32">
+        <v>98</v>
+      </c>
+      <c r="L32">
+        <v>98</v>
+      </c>
+      <c r="M32">
+        <v>98</v>
+      </c>
+      <c r="N32">
+        <v>98</v>
+      </c>
+      <c r="O32">
+        <v>98</v>
+      </c>
+      <c r="P32">
+        <v>98</v>
+      </c>
+      <c r="Q32">
+        <v>98</v>
+      </c>
+      <c r="R32">
+        <v>98</v>
+      </c>
+      <c r="S32">
+        <v>98</v>
+      </c>
+      <c r="T32">
+        <v>98</v>
+      </c>
+      <c r="U32">
+        <v>98</v>
+      </c>
+      <c r="V32">
+        <v>98</v>
+      </c>
+      <c r="W32">
+        <v>98</v>
+      </c>
+      <c r="X32">
+        <v>98</v>
+      </c>
+      <c r="Y32">
+        <v>98</v>
+      </c>
+      <c r="Z32">
+        <v>98</v>
+      </c>
+      <c r="AA32">
+        <v>98</v>
+      </c>
+      <c r="AB32">
+        <v>98</v>
+      </c>
+      <c r="AC32">
+        <v>98</v>
+      </c>
+      <c r="AD32">
+        <v>98</v>
+      </c>
+      <c r="AE32">
+        <v>98</v>
+      </c>
+      <c r="AF32">
+        <v>98</v>
+      </c>
+      <c r="AG32">
+        <v>98</v>
+      </c>
+      <c r="AH32">
+        <v>98</v>
+      </c>
+      <c r="AI32">
+        <v>98</v>
+      </c>
+      <c r="AJ32">
+        <v>98</v>
+      </c>
+      <c r="AK32">
+        <v>98</v>
+      </c>
+      <c r="AL32">
+        <v>98</v>
+      </c>
+      <c r="AM32">
+        <v>98</v>
+      </c>
+      <c r="AN32">
+        <v>98</v>
+      </c>
+      <c r="AO32">
+        <v>98</v>
+      </c>
+      <c r="AP32">
+        <v>98</v>
+      </c>
+      <c r="AQ32">
+        <v>98</v>
+      </c>
+      <c r="AR32">
+        <v>98</v>
+      </c>
+      <c r="AS32">
+        <v>98</v>
+      </c>
+      <c r="AT32">
+        <v>98</v>
+      </c>
+      <c r="AU32">
+        <v>98</v>
+      </c>
+      <c r="AV32">
+        <v>98</v>
+      </c>
+      <c r="AW32">
+        <v>98</v>
+      </c>
+      <c r="AX32">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>98</v>
+      </c>
+      <c r="B33">
+        <v>98</v>
+      </c>
+      <c r="C33">
+        <v>98</v>
+      </c>
+      <c r="D33">
+        <v>98</v>
+      </c>
+      <c r="E33">
+        <v>98</v>
+      </c>
+      <c r="F33">
+        <v>98</v>
+      </c>
+      <c r="G33">
+        <v>98</v>
+      </c>
+      <c r="H33">
+        <v>98</v>
+      </c>
+      <c r="I33">
+        <v>98</v>
+      </c>
+      <c r="J33">
+        <v>98</v>
+      </c>
+      <c r="K33">
+        <v>98</v>
+      </c>
+      <c r="L33">
+        <v>98</v>
+      </c>
+      <c r="M33">
+        <v>98</v>
+      </c>
+      <c r="N33">
+        <v>98</v>
+      </c>
+      <c r="O33">
+        <v>98</v>
+      </c>
+      <c r="P33">
+        <v>98</v>
+      </c>
+      <c r="Q33">
+        <v>98</v>
+      </c>
+      <c r="R33">
+        <v>98</v>
+      </c>
+      <c r="S33">
+        <v>98</v>
+      </c>
+      <c r="T33">
+        <v>98</v>
+      </c>
+      <c r="U33">
+        <v>98</v>
+      </c>
+      <c r="V33">
+        <v>98</v>
+      </c>
+      <c r="W33">
+        <v>98</v>
+      </c>
+      <c r="X33">
+        <v>98</v>
+      </c>
+      <c r="Y33">
+        <v>98</v>
+      </c>
+      <c r="Z33">
+        <v>98</v>
+      </c>
+      <c r="AA33">
+        <v>98</v>
+      </c>
+      <c r="AB33">
+        <v>98</v>
+      </c>
+      <c r="AC33">
+        <v>98</v>
+      </c>
+      <c r="AD33">
+        <v>98</v>
+      </c>
+      <c r="AE33">
+        <v>98</v>
+      </c>
+      <c r="AF33">
+        <v>98</v>
+      </c>
+      <c r="AG33">
+        <v>98</v>
+      </c>
+      <c r="AH33">
+        <v>98</v>
+      </c>
+      <c r="AI33">
+        <v>98</v>
+      </c>
+      <c r="AJ33">
+        <v>98</v>
+      </c>
+      <c r="AK33">
+        <v>98</v>
+      </c>
+      <c r="AL33">
+        <v>98</v>
+      </c>
+      <c r="AM33">
+        <v>98</v>
+      </c>
+      <c r="AN33">
+        <v>98</v>
+      </c>
+      <c r="AO33">
+        <v>98</v>
+      </c>
+      <c r="AP33">
+        <v>98</v>
+      </c>
+      <c r="AQ33">
+        <v>98</v>
+      </c>
+      <c r="AR33">
+        <v>98</v>
+      </c>
+      <c r="AS33">
+        <v>98</v>
+      </c>
+      <c r="AT33">
+        <v>98</v>
+      </c>
+      <c r="AU33">
+        <v>98</v>
+      </c>
+      <c r="AV33">
+        <v>98</v>
+      </c>
+      <c r="AW33">
+        <v>98</v>
+      </c>
+      <c r="AX33">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>98</v>
+      </c>
+      <c r="B34">
+        <v>98</v>
+      </c>
+      <c r="C34">
+        <v>98</v>
+      </c>
+      <c r="D34">
+        <v>98</v>
+      </c>
+      <c r="E34">
+        <v>98</v>
+      </c>
+      <c r="F34">
+        <v>98</v>
+      </c>
+      <c r="G34">
+        <v>98</v>
+      </c>
+      <c r="H34">
+        <v>98</v>
+      </c>
+      <c r="I34">
+        <v>98</v>
+      </c>
+      <c r="J34">
+        <v>98</v>
+      </c>
+      <c r="K34">
+        <v>98</v>
+      </c>
+      <c r="L34">
+        <v>98</v>
+      </c>
+      <c r="M34">
+        <v>98</v>
+      </c>
+      <c r="N34">
+        <v>98</v>
+      </c>
+      <c r="O34">
+        <v>98</v>
+      </c>
+      <c r="P34">
+        <v>98</v>
+      </c>
+      <c r="Q34">
+        <v>98</v>
+      </c>
+      <c r="R34">
+        <v>98</v>
+      </c>
+      <c r="S34">
+        <v>98</v>
+      </c>
+      <c r="T34">
+        <v>98</v>
+      </c>
+      <c r="U34">
+        <v>98</v>
+      </c>
+      <c r="V34">
+        <v>98</v>
+      </c>
+      <c r="W34">
+        <v>98</v>
+      </c>
+      <c r="X34">
+        <v>98</v>
+      </c>
+      <c r="Y34">
+        <v>98</v>
+      </c>
+      <c r="Z34">
+        <v>98</v>
+      </c>
+      <c r="AA34">
+        <v>98</v>
+      </c>
+      <c r="AB34">
+        <v>98</v>
+      </c>
+      <c r="AC34">
+        <v>98</v>
+      </c>
+      <c r="AD34">
+        <v>98</v>
+      </c>
+      <c r="AE34">
+        <v>98</v>
+      </c>
+      <c r="AF34">
+        <v>98</v>
+      </c>
+      <c r="AG34">
+        <v>98</v>
+      </c>
+      <c r="AH34">
+        <v>98</v>
+      </c>
+      <c r="AI34">
+        <v>98</v>
+      </c>
+      <c r="AJ34">
+        <v>98</v>
+      </c>
+      <c r="AK34">
+        <v>98</v>
+      </c>
+      <c r="AL34">
+        <v>98</v>
+      </c>
+      <c r="AM34">
+        <v>98</v>
+      </c>
+      <c r="AN34">
+        <v>98</v>
+      </c>
+      <c r="AO34">
+        <v>98</v>
+      </c>
+      <c r="AP34">
+        <v>98</v>
+      </c>
+      <c r="AQ34">
+        <v>98</v>
+      </c>
+      <c r="AR34">
+        <v>98</v>
+      </c>
+      <c r="AS34">
+        <v>98</v>
+      </c>
+      <c r="AT34">
+        <v>98</v>
+      </c>
+      <c r="AU34">
+        <v>98</v>
+      </c>
+      <c r="AV34">
+        <v>98</v>
+      </c>
+      <c r="AW34">
+        <v>98</v>
+      </c>
+      <c r="AX34">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>98</v>
+      </c>
+      <c r="B35">
+        <v>98</v>
+      </c>
+      <c r="C35">
+        <v>98</v>
+      </c>
+      <c r="D35">
+        <v>98</v>
+      </c>
+      <c r="E35">
+        <v>98</v>
+      </c>
+      <c r="F35">
+        <v>98</v>
+      </c>
+      <c r="G35">
+        <v>98</v>
+      </c>
+      <c r="H35">
+        <v>98</v>
+      </c>
+      <c r="I35">
+        <v>98</v>
+      </c>
+      <c r="J35">
+        <v>98</v>
+      </c>
+      <c r="K35">
+        <v>98</v>
+      </c>
+      <c r="L35">
+        <v>98</v>
+      </c>
+      <c r="M35">
+        <v>98</v>
+      </c>
+      <c r="N35">
+        <v>98</v>
+      </c>
+      <c r="O35">
+        <v>98</v>
+      </c>
+      <c r="P35">
+        <v>98</v>
+      </c>
+      <c r="Q35">
+        <v>98</v>
+      </c>
+      <c r="R35">
+        <v>98</v>
+      </c>
+      <c r="S35">
+        <v>98</v>
+      </c>
+      <c r="T35">
+        <v>98</v>
+      </c>
+      <c r="U35">
+        <v>98</v>
+      </c>
+      <c r="V35">
+        <v>98</v>
+      </c>
+      <c r="W35">
+        <v>98</v>
+      </c>
+      <c r="X35">
+        <v>98</v>
+      </c>
+      <c r="Y35">
+        <v>98</v>
+      </c>
+      <c r="Z35">
+        <v>98</v>
+      </c>
+      <c r="AA35">
+        <v>98</v>
+      </c>
+      <c r="AB35">
+        <v>98</v>
+      </c>
+      <c r="AC35">
+        <v>98</v>
+      </c>
+      <c r="AD35">
+        <v>98</v>
+      </c>
+      <c r="AE35">
+        <v>98</v>
+      </c>
+      <c r="AF35">
+        <v>98</v>
+      </c>
+      <c r="AG35">
+        <v>98</v>
+      </c>
+      <c r="AH35">
+        <v>98</v>
+      </c>
+      <c r="AI35">
+        <v>98</v>
+      </c>
+      <c r="AJ35">
+        <v>98</v>
+      </c>
+      <c r="AK35">
+        <v>98</v>
+      </c>
+      <c r="AL35">
+        <v>98</v>
+      </c>
+      <c r="AM35">
+        <v>98</v>
+      </c>
+      <c r="AN35">
+        <v>98</v>
+      </c>
+      <c r="AO35">
+        <v>98</v>
+      </c>
+      <c r="AP35">
+        <v>98</v>
+      </c>
+      <c r="AQ35">
+        <v>98</v>
+      </c>
+      <c r="AR35">
+        <v>98</v>
+      </c>
+      <c r="AS35">
+        <v>98</v>
+      </c>
+      <c r="AT35">
+        <v>98</v>
+      </c>
+      <c r="AU35">
+        <v>98</v>
+      </c>
+      <c r="AV35">
+        <v>98</v>
+      </c>
+      <c r="AW35">
+        <v>98</v>
+      </c>
+      <c r="AX35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>98</v>
+      </c>
+      <c r="B36">
+        <v>98</v>
+      </c>
+      <c r="C36">
+        <v>98</v>
+      </c>
+      <c r="D36">
+        <v>98</v>
+      </c>
+      <c r="E36">
+        <v>98</v>
+      </c>
+      <c r="F36">
+        <v>98</v>
+      </c>
+      <c r="G36">
+        <v>98</v>
+      </c>
+      <c r="H36">
+        <v>98</v>
+      </c>
+      <c r="I36">
+        <v>98</v>
+      </c>
+      <c r="J36">
+        <v>98</v>
+      </c>
+      <c r="K36">
+        <v>98</v>
+      </c>
+      <c r="L36">
+        <v>98</v>
+      </c>
+      <c r="M36">
+        <v>98</v>
+      </c>
+      <c r="N36">
+        <v>98</v>
+      </c>
+      <c r="O36">
+        <v>98</v>
+      </c>
+      <c r="P36">
+        <v>98</v>
+      </c>
+      <c r="Q36">
+        <v>98</v>
+      </c>
+      <c r="R36">
+        <v>98</v>
+      </c>
+      <c r="S36">
+        <v>98</v>
+      </c>
+      <c r="T36">
+        <v>98</v>
+      </c>
+      <c r="U36">
+        <v>98</v>
+      </c>
+      <c r="V36">
+        <v>98</v>
+      </c>
+      <c r="W36">
+        <v>98</v>
+      </c>
+      <c r="X36">
+        <v>98</v>
+      </c>
+      <c r="Y36">
+        <v>98</v>
+      </c>
+      <c r="Z36">
+        <v>98</v>
+      </c>
+      <c r="AA36">
+        <v>98</v>
+      </c>
+      <c r="AB36">
+        <v>98</v>
+      </c>
+      <c r="AC36">
+        <v>98</v>
+      </c>
+      <c r="AD36">
+        <v>98</v>
+      </c>
+      <c r="AE36">
+        <v>98</v>
+      </c>
+      <c r="AF36">
+        <v>98</v>
+      </c>
+      <c r="AG36">
+        <v>98</v>
+      </c>
+      <c r="AH36">
+        <v>98</v>
+      </c>
+      <c r="AI36">
+        <v>98</v>
+      </c>
+      <c r="AJ36">
+        <v>98</v>
+      </c>
+      <c r="AK36">
+        <v>98</v>
+      </c>
+      <c r="AL36">
+        <v>98</v>
+      </c>
+      <c r="AM36">
+        <v>98</v>
+      </c>
+      <c r="AN36">
+        <v>98</v>
+      </c>
+      <c r="AO36">
+        <v>98</v>
+      </c>
+      <c r="AP36">
+        <v>98</v>
+      </c>
+      <c r="AQ36">
+        <v>98</v>
+      </c>
+      <c r="AR36">
+        <v>98</v>
+      </c>
+      <c r="AS36">
+        <v>98</v>
+      </c>
+      <c r="AT36">
+        <v>98</v>
+      </c>
+      <c r="AU36">
+        <v>98</v>
+      </c>
+      <c r="AV36">
+        <v>98</v>
+      </c>
+      <c r="AW36">
+        <v>98</v>
+      </c>
+      <c r="AX36">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>98</v>
+      </c>
+      <c r="B37">
+        <v>98</v>
+      </c>
+      <c r="C37">
+        <v>98</v>
+      </c>
+      <c r="D37">
+        <v>98</v>
+      </c>
+      <c r="E37">
+        <v>98</v>
+      </c>
+      <c r="F37">
+        <v>98</v>
+      </c>
+      <c r="G37">
+        <v>98</v>
+      </c>
+      <c r="H37">
+        <v>98</v>
+      </c>
+      <c r="I37">
+        <v>98</v>
+      </c>
+      <c r="J37">
+        <v>98</v>
+      </c>
+      <c r="K37">
+        <v>98</v>
+      </c>
+      <c r="L37">
+        <v>98</v>
+      </c>
+      <c r="M37">
+        <v>98</v>
+      </c>
+      <c r="N37">
+        <v>98</v>
+      </c>
+      <c r="O37">
+        <v>98</v>
+      </c>
+      <c r="P37">
+        <v>98</v>
+      </c>
+      <c r="Q37">
+        <v>98</v>
+      </c>
+      <c r="R37">
+        <v>98</v>
+      </c>
+      <c r="S37">
+        <v>98</v>
+      </c>
+      <c r="T37">
+        <v>98</v>
+      </c>
+      <c r="U37">
+        <v>98</v>
+      </c>
+      <c r="V37">
+        <v>98</v>
+      </c>
+      <c r="W37">
+        <v>98</v>
+      </c>
+      <c r="X37">
+        <v>98</v>
+      </c>
+      <c r="Y37">
+        <v>98</v>
+      </c>
+      <c r="Z37">
+        <v>98</v>
+      </c>
+      <c r="AA37">
+        <v>98</v>
+      </c>
+      <c r="AB37">
+        <v>98</v>
+      </c>
+      <c r="AC37">
+        <v>98</v>
+      </c>
+      <c r="AD37">
+        <v>98</v>
+      </c>
+      <c r="AE37">
+        <v>98</v>
+      </c>
+      <c r="AF37">
+        <v>98</v>
+      </c>
+      <c r="AG37">
+        <v>98</v>
+      </c>
+      <c r="AH37">
+        <v>98</v>
+      </c>
+      <c r="AI37">
+        <v>98</v>
+      </c>
+      <c r="AJ37">
+        <v>98</v>
+      </c>
+      <c r="AK37">
+        <v>98</v>
+      </c>
+      <c r="AL37">
+        <v>98</v>
+      </c>
+      <c r="AM37">
+        <v>98</v>
+      </c>
+      <c r="AN37">
+        <v>98</v>
+      </c>
+      <c r="AO37">
+        <v>98</v>
+      </c>
+      <c r="AP37">
+        <v>98</v>
+      </c>
+      <c r="AQ37">
+        <v>98</v>
+      </c>
+      <c r="AR37">
+        <v>98</v>
+      </c>
+      <c r="AS37">
+        <v>98</v>
+      </c>
+      <c r="AT37">
+        <v>98</v>
+      </c>
+      <c r="AU37">
+        <v>98</v>
+      </c>
+      <c r="AV37">
+        <v>98</v>
+      </c>
+      <c r="AW37">
+        <v>98</v>
+      </c>
+      <c r="AX37">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>98</v>
+      </c>
+      <c r="B38">
+        <v>98</v>
+      </c>
+      <c r="C38">
+        <v>98</v>
+      </c>
+      <c r="D38">
+        <v>98</v>
+      </c>
+      <c r="E38">
+        <v>98</v>
+      </c>
+      <c r="F38">
+        <v>98</v>
+      </c>
+      <c r="G38">
+        <v>98</v>
+      </c>
+      <c r="H38">
+        <v>98</v>
+      </c>
+      <c r="I38">
+        <v>98</v>
+      </c>
+      <c r="J38">
+        <v>98</v>
+      </c>
+      <c r="K38">
+        <v>98</v>
+      </c>
+      <c r="L38">
+        <v>98</v>
+      </c>
+      <c r="M38">
+        <v>98</v>
+      </c>
+      <c r="N38">
+        <v>98</v>
+      </c>
+      <c r="O38">
+        <v>98</v>
+      </c>
+      <c r="P38">
+        <v>98</v>
+      </c>
+      <c r="Q38">
+        <v>98</v>
+      </c>
+      <c r="R38">
+        <v>98</v>
+      </c>
+      <c r="S38">
+        <v>98</v>
+      </c>
+      <c r="T38">
+        <v>98</v>
+      </c>
+      <c r="U38">
+        <v>98</v>
+      </c>
+      <c r="V38">
+        <v>98</v>
+      </c>
+      <c r="W38">
+        <v>98</v>
+      </c>
+      <c r="X38">
+        <v>98</v>
+      </c>
+      <c r="Y38">
+        <v>98</v>
+      </c>
+      <c r="Z38">
+        <v>98</v>
+      </c>
+      <c r="AA38">
+        <v>98</v>
+      </c>
+      <c r="AB38">
+        <v>98</v>
+      </c>
+      <c r="AC38">
+        <v>98</v>
+      </c>
+      <c r="AD38">
+        <v>98</v>
+      </c>
+      <c r="AE38">
+        <v>98</v>
+      </c>
+      <c r="AF38">
+        <v>98</v>
+      </c>
+      <c r="AG38">
+        <v>98</v>
+      </c>
+      <c r="AH38">
+        <v>98</v>
+      </c>
+      <c r="AI38">
+        <v>98</v>
+      </c>
+      <c r="AJ38">
+        <v>98</v>
+      </c>
+      <c r="AK38">
+        <v>98</v>
+      </c>
+      <c r="AL38">
+        <v>98</v>
+      </c>
+      <c r="AM38">
+        <v>98</v>
+      </c>
+      <c r="AN38">
+        <v>98</v>
+      </c>
+      <c r="AO38">
+        <v>98</v>
+      </c>
+      <c r="AP38">
+        <v>98</v>
+      </c>
+      <c r="AQ38">
+        <v>98</v>
+      </c>
+      <c r="AR38">
+        <v>98</v>
+      </c>
+      <c r="AS38">
+        <v>98</v>
+      </c>
+      <c r="AT38">
+        <v>98</v>
+      </c>
+      <c r="AU38">
+        <v>98</v>
+      </c>
+      <c r="AV38">
+        <v>98</v>
+      </c>
+      <c r="AW38">
+        <v>98</v>
+      </c>
+      <c r="AX38">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>98</v>
+      </c>
+      <c r="B39">
+        <v>98</v>
+      </c>
+      <c r="C39">
+        <v>98</v>
+      </c>
+      <c r="D39">
+        <v>98</v>
+      </c>
+      <c r="E39">
+        <v>98</v>
+      </c>
+      <c r="F39">
+        <v>98</v>
+      </c>
+      <c r="G39">
+        <v>98</v>
+      </c>
+      <c r="H39">
+        <v>98</v>
+      </c>
+      <c r="I39">
+        <v>98</v>
+      </c>
+      <c r="J39">
+        <v>98</v>
+      </c>
+      <c r="K39">
+        <v>98</v>
+      </c>
+      <c r="L39">
+        <v>98</v>
+      </c>
+      <c r="M39">
+        <v>98</v>
+      </c>
+      <c r="N39">
+        <v>98</v>
+      </c>
+      <c r="O39">
+        <v>98</v>
+      </c>
+      <c r="P39">
+        <v>98</v>
+      </c>
+      <c r="Q39">
+        <v>98</v>
+      </c>
+      <c r="R39">
+        <v>98</v>
+      </c>
+      <c r="S39">
+        <v>98</v>
+      </c>
+      <c r="T39">
+        <v>98</v>
+      </c>
+      <c r="U39">
+        <v>98</v>
+      </c>
+      <c r="V39">
+        <v>98</v>
+      </c>
+      <c r="W39">
+        <v>98</v>
+      </c>
+      <c r="X39">
+        <v>98</v>
+      </c>
+      <c r="Y39">
+        <v>98</v>
+      </c>
+      <c r="Z39">
+        <v>98</v>
+      </c>
+      <c r="AA39">
+        <v>98</v>
+      </c>
+      <c r="AB39">
+        <v>98</v>
+      </c>
+      <c r="AC39">
+        <v>98</v>
+      </c>
+      <c r="AD39">
+        <v>98</v>
+      </c>
+      <c r="AE39">
+        <v>98</v>
+      </c>
+      <c r="AF39">
+        <v>98</v>
+      </c>
+      <c r="AG39">
+        <v>98</v>
+      </c>
+      <c r="AH39">
+        <v>98</v>
+      </c>
+      <c r="AI39">
+        <v>98</v>
+      </c>
+      <c r="AJ39">
+        <v>98</v>
+      </c>
+      <c r="AK39">
+        <v>98</v>
+      </c>
+      <c r="AL39">
+        <v>98</v>
+      </c>
+      <c r="AM39">
+        <v>98</v>
+      </c>
+      <c r="AN39">
+        <v>98</v>
+      </c>
+      <c r="AO39">
+        <v>98</v>
+      </c>
+      <c r="AP39">
+        <v>98</v>
+      </c>
+      <c r="AQ39">
+        <v>98</v>
+      </c>
+      <c r="AR39">
+        <v>98</v>
+      </c>
+      <c r="AS39">
+        <v>98</v>
+      </c>
+      <c r="AT39">
+        <v>98</v>
+      </c>
+      <c r="AU39">
+        <v>98</v>
+      </c>
+      <c r="AV39">
+        <v>98</v>
+      </c>
+      <c r="AW39">
+        <v>98</v>
+      </c>
+      <c r="AX39">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>98</v>
+      </c>
+      <c r="B40">
+        <v>98</v>
+      </c>
+      <c r="C40">
+        <v>98</v>
+      </c>
+      <c r="D40">
+        <v>98</v>
+      </c>
+      <c r="E40">
+        <v>98</v>
+      </c>
+      <c r="F40">
+        <v>98</v>
+      </c>
+      <c r="G40">
+        <v>98</v>
+      </c>
+      <c r="H40">
+        <v>98</v>
+      </c>
+      <c r="I40">
+        <v>98</v>
+      </c>
+      <c r="J40">
+        <v>98</v>
+      </c>
+      <c r="K40">
+        <v>98</v>
+      </c>
+      <c r="L40">
+        <v>98</v>
+      </c>
+      <c r="M40">
+        <v>98</v>
+      </c>
+      <c r="N40">
+        <v>98</v>
+      </c>
+      <c r="O40">
+        <v>98</v>
+      </c>
+      <c r="P40">
+        <v>98</v>
+      </c>
+      <c r="Q40">
+        <v>98</v>
+      </c>
+      <c r="R40">
+        <v>98</v>
+      </c>
+      <c r="S40">
+        <v>98</v>
+      </c>
+      <c r="T40">
+        <v>98</v>
+      </c>
+      <c r="U40">
+        <v>98</v>
+      </c>
+      <c r="V40">
+        <v>98</v>
+      </c>
+      <c r="W40">
+        <v>98</v>
+      </c>
+      <c r="X40">
+        <v>98</v>
+      </c>
+      <c r="Y40">
+        <v>98</v>
+      </c>
+      <c r="Z40">
+        <v>98</v>
+      </c>
+      <c r="AA40">
+        <v>98</v>
+      </c>
+      <c r="AB40">
+        <v>98</v>
+      </c>
+      <c r="AC40">
+        <v>98</v>
+      </c>
+      <c r="AD40">
+        <v>98</v>
+      </c>
+      <c r="AE40">
+        <v>98</v>
+      </c>
+      <c r="AF40">
+        <v>98</v>
+      </c>
+      <c r="AG40">
+        <v>98</v>
+      </c>
+      <c r="AH40">
+        <v>98</v>
+      </c>
+      <c r="AI40">
+        <v>98</v>
+      </c>
+      <c r="AJ40">
+        <v>98</v>
+      </c>
+      <c r="AK40">
+        <v>98</v>
+      </c>
+      <c r="AL40">
+        <v>98</v>
+      </c>
+      <c r="AM40">
+        <v>98</v>
+      </c>
+      <c r="AN40">
+        <v>98</v>
+      </c>
+      <c r="AO40">
+        <v>98</v>
+      </c>
+      <c r="AP40">
+        <v>98</v>
+      </c>
+      <c r="AQ40">
+        <v>98</v>
+      </c>
+      <c r="AR40">
+        <v>98</v>
+      </c>
+      <c r="AS40">
+        <v>98</v>
+      </c>
+      <c r="AT40">
+        <v>98</v>
+      </c>
+      <c r="AU40">
+        <v>98</v>
+      </c>
+      <c r="AV40">
+        <v>98</v>
+      </c>
+      <c r="AW40">
+        <v>98</v>
+      </c>
+      <c r="AX40">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>98</v>
+      </c>
+      <c r="B41">
+        <v>98</v>
+      </c>
+      <c r="C41">
+        <v>98</v>
+      </c>
+      <c r="D41">
+        <v>98</v>
+      </c>
+      <c r="E41">
+        <v>98</v>
+      </c>
+      <c r="F41">
+        <v>98</v>
+      </c>
+      <c r="G41">
+        <v>98</v>
+      </c>
+      <c r="H41">
+        <v>98</v>
+      </c>
+      <c r="I41">
+        <v>98</v>
+      </c>
+      <c r="J41">
+        <v>98</v>
+      </c>
+      <c r="K41">
+        <v>98</v>
+      </c>
+      <c r="L41">
+        <v>98</v>
+      </c>
+      <c r="M41">
+        <v>98</v>
+      </c>
+      <c r="N41">
+        <v>98</v>
+      </c>
+      <c r="O41">
+        <v>98</v>
+      </c>
+      <c r="P41">
+        <v>98</v>
+      </c>
+      <c r="Q41">
+        <v>98</v>
+      </c>
+      <c r="R41">
+        <v>98</v>
+      </c>
+      <c r="S41">
+        <v>98</v>
+      </c>
+      <c r="T41">
+        <v>98</v>
+      </c>
+      <c r="U41">
+        <v>98</v>
+      </c>
+      <c r="V41">
+        <v>98</v>
+      </c>
+      <c r="W41">
+        <v>98</v>
+      </c>
+      <c r="X41">
+        <v>98</v>
+      </c>
+      <c r="Y41">
+        <v>98</v>
+      </c>
+      <c r="Z41">
+        <v>98</v>
+      </c>
+      <c r="AA41">
+        <v>98</v>
+      </c>
+      <c r="AB41">
+        <v>98</v>
+      </c>
+      <c r="AC41">
+        <v>98</v>
+      </c>
+      <c r="AD41">
+        <v>98</v>
+      </c>
+      <c r="AE41">
+        <v>98</v>
+      </c>
+      <c r="AF41">
+        <v>98</v>
+      </c>
+      <c r="AG41">
+        <v>98</v>
+      </c>
+      <c r="AH41">
+        <v>98</v>
+      </c>
+      <c r="AI41">
+        <v>98</v>
+      </c>
+      <c r="AJ41">
+        <v>98</v>
+      </c>
+      <c r="AK41">
+        <v>98</v>
+      </c>
+      <c r="AL41">
+        <v>98</v>
+      </c>
+      <c r="AM41">
+        <v>98</v>
+      </c>
+      <c r="AN41">
+        <v>98</v>
+      </c>
+      <c r="AO41">
+        <v>98</v>
+      </c>
+      <c r="AP41">
+        <v>98</v>
+      </c>
+      <c r="AQ41">
+        <v>98</v>
+      </c>
+      <c r="AR41">
+        <v>98</v>
+      </c>
+      <c r="AS41">
+        <v>98</v>
+      </c>
+      <c r="AT41">
+        <v>98</v>
+      </c>
+      <c r="AU41">
+        <v>98</v>
+      </c>
+      <c r="AV41">
+        <v>98</v>
+      </c>
+      <c r="AW41">
+        <v>98</v>
+      </c>
+      <c r="AX41">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>98</v>
+      </c>
+      <c r="B42">
+        <v>98</v>
+      </c>
+      <c r="C42">
+        <v>98</v>
+      </c>
+      <c r="D42">
+        <v>98</v>
+      </c>
+      <c r="E42">
+        <v>98</v>
+      </c>
+      <c r="F42">
+        <v>98</v>
+      </c>
+      <c r="G42">
+        <v>98</v>
+      </c>
+      <c r="H42">
+        <v>98</v>
+      </c>
+      <c r="I42">
+        <v>98</v>
+      </c>
+      <c r="J42">
+        <v>98</v>
+      </c>
+      <c r="K42">
+        <v>98</v>
+      </c>
+      <c r="L42">
+        <v>98</v>
+      </c>
+      <c r="M42">
+        <v>98</v>
+      </c>
+      <c r="N42">
+        <v>98</v>
+      </c>
+      <c r="O42">
+        <v>98</v>
+      </c>
+      <c r="P42">
+        <v>98</v>
+      </c>
+      <c r="Q42">
+        <v>98</v>
+      </c>
+      <c r="R42">
+        <v>98</v>
+      </c>
+      <c r="S42">
+        <v>98</v>
+      </c>
+      <c r="T42">
+        <v>98</v>
+      </c>
+      <c r="U42">
+        <v>98</v>
+      </c>
+      <c r="V42">
+        <v>98</v>
+      </c>
+      <c r="W42">
+        <v>98</v>
+      </c>
+      <c r="X42">
+        <v>98</v>
+      </c>
+      <c r="Y42">
+        <v>98</v>
+      </c>
+      <c r="Z42">
+        <v>98</v>
+      </c>
+      <c r="AA42">
+        <v>98</v>
+      </c>
+      <c r="AB42">
+        <v>98</v>
+      </c>
+      <c r="AC42">
+        <v>98</v>
+      </c>
+      <c r="AD42">
+        <v>98</v>
+      </c>
+      <c r="AE42">
+        <v>98</v>
+      </c>
+      <c r="AF42">
+        <v>98</v>
+      </c>
+      <c r="AG42">
+        <v>98</v>
+      </c>
+      <c r="AH42">
+        <v>98</v>
+      </c>
+      <c r="AI42">
+        <v>98</v>
+      </c>
+      <c r="AJ42">
+        <v>98</v>
+      </c>
+      <c r="AK42">
+        <v>98</v>
+      </c>
+      <c r="AL42">
+        <v>98</v>
+      </c>
+      <c r="AM42">
+        <v>98</v>
+      </c>
+      <c r="AN42">
+        <v>98</v>
+      </c>
+      <c r="AO42">
+        <v>98</v>
+      </c>
+      <c r="AP42">
+        <v>98</v>
+      </c>
+      <c r="AQ42">
+        <v>98</v>
+      </c>
+      <c r="AR42">
+        <v>98</v>
+      </c>
+      <c r="AS42">
+        <v>98</v>
+      </c>
+      <c r="AT42">
+        <v>98</v>
+      </c>
+      <c r="AU42">
+        <v>98</v>
+      </c>
+      <c r="AV42">
+        <v>98</v>
+      </c>
+      <c r="AW42">
+        <v>98</v>
+      </c>
+      <c r="AX42">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>98</v>
+      </c>
+      <c r="B43">
+        <v>98</v>
+      </c>
+      <c r="C43">
+        <v>98</v>
+      </c>
+      <c r="D43">
+        <v>98</v>
+      </c>
+      <c r="E43">
+        <v>98</v>
+      </c>
+      <c r="F43">
+        <v>98</v>
+      </c>
+      <c r="G43">
+        <v>98</v>
+      </c>
+      <c r="H43">
+        <v>98</v>
+      </c>
+      <c r="I43">
+        <v>98</v>
+      </c>
+      <c r="J43">
+        <v>98</v>
+      </c>
+      <c r="K43">
+        <v>98</v>
+      </c>
+      <c r="L43">
+        <v>98</v>
+      </c>
+      <c r="M43">
+        <v>98</v>
+      </c>
+      <c r="N43">
+        <v>98</v>
+      </c>
+      <c r="O43">
+        <v>98</v>
+      </c>
+      <c r="P43">
+        <v>98</v>
+      </c>
+      <c r="Q43">
+        <v>98</v>
+      </c>
+      <c r="R43">
+        <v>98</v>
+      </c>
+      <c r="S43">
+        <v>98</v>
+      </c>
+      <c r="T43">
+        <v>98</v>
+      </c>
+      <c r="U43">
+        <v>98</v>
+      </c>
+      <c r="V43">
+        <v>98</v>
+      </c>
+      <c r="W43">
+        <v>98</v>
+      </c>
+      <c r="X43">
+        <v>98</v>
+      </c>
+      <c r="Y43">
+        <v>98</v>
+      </c>
+      <c r="Z43">
+        <v>98</v>
+      </c>
+      <c r="AA43">
+        <v>98</v>
+      </c>
+      <c r="AB43">
+        <v>98</v>
+      </c>
+      <c r="AC43">
+        <v>98</v>
+      </c>
+      <c r="AD43">
+        <v>98</v>
+      </c>
+      <c r="AE43">
+        <v>98</v>
+      </c>
+      <c r="AF43">
+        <v>98</v>
+      </c>
+      <c r="AG43">
+        <v>98</v>
+      </c>
+      <c r="AH43">
+        <v>98</v>
+      </c>
+      <c r="AI43">
+        <v>98</v>
+      </c>
+      <c r="AJ43">
+        <v>98</v>
+      </c>
+      <c r="AK43">
+        <v>98</v>
+      </c>
+      <c r="AL43">
+        <v>98</v>
+      </c>
+      <c r="AM43">
+        <v>98</v>
+      </c>
+      <c r="AN43">
+        <v>98</v>
+      </c>
+      <c r="AO43">
+        <v>98</v>
+      </c>
+      <c r="AP43">
+        <v>98</v>
+      </c>
+      <c r="AQ43">
+        <v>98</v>
+      </c>
+      <c r="AR43">
+        <v>98</v>
+      </c>
+      <c r="AS43">
+        <v>98</v>
+      </c>
+      <c r="AT43">
+        <v>98</v>
+      </c>
+      <c r="AU43">
+        <v>98</v>
+      </c>
+      <c r="AV43">
+        <v>98</v>
+      </c>
+      <c r="AW43">
+        <v>98</v>
+      </c>
+      <c r="AX43">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>98</v>
+      </c>
+      <c r="B44">
+        <v>98</v>
+      </c>
+      <c r="C44">
+        <v>98</v>
+      </c>
+      <c r="D44">
+        <v>98</v>
+      </c>
+      <c r="E44">
+        <v>98</v>
+      </c>
+      <c r="F44">
+        <v>98</v>
+      </c>
+      <c r="G44">
+        <v>98</v>
+      </c>
+      <c r="H44">
+        <v>98</v>
+      </c>
+      <c r="I44">
+        <v>98</v>
+      </c>
+      <c r="J44">
+        <v>98</v>
+      </c>
+      <c r="K44">
+        <v>98</v>
+      </c>
+      <c r="L44">
+        <v>98</v>
+      </c>
+      <c r="M44">
+        <v>98</v>
+      </c>
+      <c r="N44">
+        <v>98</v>
+      </c>
+      <c r="O44">
+        <v>98</v>
+      </c>
+      <c r="P44">
+        <v>98</v>
+      </c>
+      <c r="Q44">
+        <v>98</v>
+      </c>
+      <c r="R44">
+        <v>98</v>
+      </c>
+      <c r="S44">
+        <v>98</v>
+      </c>
+      <c r="T44">
+        <v>98</v>
+      </c>
+      <c r="U44">
+        <v>98</v>
+      </c>
+      <c r="V44">
+        <v>98</v>
+      </c>
+      <c r="W44">
+        <v>98</v>
+      </c>
+      <c r="X44">
+        <v>98</v>
+      </c>
+      <c r="Y44">
+        <v>98</v>
+      </c>
+      <c r="Z44">
+        <v>98</v>
+      </c>
+      <c r="AA44">
+        <v>98</v>
+      </c>
+      <c r="AB44">
+        <v>98</v>
+      </c>
+      <c r="AC44">
+        <v>98</v>
+      </c>
+      <c r="AD44">
+        <v>98</v>
+      </c>
+      <c r="AE44">
+        <v>98</v>
+      </c>
+      <c r="AF44">
+        <v>98</v>
+      </c>
+      <c r="AG44">
+        <v>98</v>
+      </c>
+      <c r="AH44">
+        <v>98</v>
+      </c>
+      <c r="AI44">
+        <v>98</v>
+      </c>
+      <c r="AJ44">
+        <v>98</v>
+      </c>
+      <c r="AK44">
+        <v>98</v>
+      </c>
+      <c r="AL44">
+        <v>98</v>
+      </c>
+      <c r="AM44">
+        <v>98</v>
+      </c>
+      <c r="AN44">
+        <v>98</v>
+      </c>
+      <c r="AO44">
+        <v>98</v>
+      </c>
+      <c r="AP44">
+        <v>98</v>
+      </c>
+      <c r="AQ44">
+        <v>98</v>
+      </c>
+      <c r="AR44">
+        <v>98</v>
+      </c>
+      <c r="AS44">
+        <v>98</v>
+      </c>
+      <c r="AT44">
+        <v>98</v>
+      </c>
+      <c r="AU44">
+        <v>98</v>
+      </c>
+      <c r="AV44">
+        <v>98</v>
+      </c>
+      <c r="AW44">
+        <v>98</v>
+      </c>
+      <c r="AX44">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>98</v>
+      </c>
+      <c r="B45">
+        <v>98</v>
+      </c>
+      <c r="C45">
+        <v>98</v>
+      </c>
+      <c r="D45">
+        <v>98</v>
+      </c>
+      <c r="E45">
+        <v>98</v>
+      </c>
+      <c r="F45">
+        <v>98</v>
+      </c>
+      <c r="G45">
+        <v>98</v>
+      </c>
+      <c r="H45">
+        <v>98</v>
+      </c>
+      <c r="I45">
+        <v>98</v>
+      </c>
+      <c r="J45">
+        <v>98</v>
+      </c>
+      <c r="K45">
+        <v>98</v>
+      </c>
+      <c r="L45">
+        <v>98</v>
+      </c>
+      <c r="M45">
+        <v>98</v>
+      </c>
+      <c r="N45">
+        <v>98</v>
+      </c>
+      <c r="O45">
+        <v>98</v>
+      </c>
+      <c r="P45">
+        <v>98</v>
+      </c>
+      <c r="Q45">
+        <v>98</v>
+      </c>
+      <c r="R45">
+        <v>98</v>
+      </c>
+      <c r="S45">
+        <v>98</v>
+      </c>
+      <c r="T45">
+        <v>98</v>
+      </c>
+      <c r="U45">
+        <v>98</v>
+      </c>
+      <c r="V45">
+        <v>98</v>
+      </c>
+      <c r="W45">
+        <v>98</v>
+      </c>
+      <c r="X45">
+        <v>98</v>
+      </c>
+      <c r="Y45">
+        <v>98</v>
+      </c>
+      <c r="Z45">
+        <v>98</v>
+      </c>
+      <c r="AA45">
+        <v>98</v>
+      </c>
+      <c r="AB45">
+        <v>98</v>
+      </c>
+      <c r="AC45">
+        <v>98</v>
+      </c>
+      <c r="AD45">
+        <v>98</v>
+      </c>
+      <c r="AE45">
+        <v>98</v>
+      </c>
+      <c r="AF45">
+        <v>98</v>
+      </c>
+      <c r="AG45">
+        <v>98</v>
+      </c>
+      <c r="AH45">
+        <v>98</v>
+      </c>
+      <c r="AI45">
+        <v>98</v>
+      </c>
+      <c r="AJ45">
+        <v>98</v>
+      </c>
+      <c r="AK45">
+        <v>98</v>
+      </c>
+      <c r="AL45">
+        <v>98</v>
+      </c>
+      <c r="AM45">
+        <v>98</v>
+      </c>
+      <c r="AN45">
+        <v>98</v>
+      </c>
+      <c r="AO45">
+        <v>98</v>
+      </c>
+      <c r="AP45">
+        <v>98</v>
+      </c>
+      <c r="AQ45">
+        <v>98</v>
+      </c>
+      <c r="AR45">
+        <v>98</v>
+      </c>
+      <c r="AS45">
+        <v>98</v>
+      </c>
+      <c r="AT45">
+        <v>98</v>
+      </c>
+      <c r="AU45">
+        <v>98</v>
+      </c>
+      <c r="AV45">
+        <v>98</v>
+      </c>
+      <c r="AW45">
+        <v>98</v>
+      </c>
+      <c r="AX45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>98</v>
+      </c>
+      <c r="B46">
+        <v>98</v>
+      </c>
+      <c r="C46">
+        <v>98</v>
+      </c>
+      <c r="D46">
+        <v>98</v>
+      </c>
+      <c r="E46">
+        <v>98</v>
+      </c>
+      <c r="F46">
+        <v>98</v>
+      </c>
+      <c r="G46">
+        <v>98</v>
+      </c>
+      <c r="H46">
+        <v>98</v>
+      </c>
+      <c r="I46">
+        <v>98</v>
+      </c>
+      <c r="J46">
+        <v>98</v>
+      </c>
+      <c r="K46">
+        <v>98</v>
+      </c>
+      <c r="L46">
+        <v>98</v>
+      </c>
+      <c r="M46">
+        <v>98</v>
+      </c>
+      <c r="N46">
+        <v>98</v>
+      </c>
+      <c r="O46">
+        <v>98</v>
+      </c>
+      <c r="P46">
+        <v>98</v>
+      </c>
+      <c r="Q46">
+        <v>98</v>
+      </c>
+      <c r="R46">
+        <v>98</v>
+      </c>
+      <c r="S46">
+        <v>98</v>
+      </c>
+      <c r="T46">
+        <v>98</v>
+      </c>
+      <c r="U46">
+        <v>98</v>
+      </c>
+      <c r="V46">
+        <v>98</v>
+      </c>
+      <c r="W46">
+        <v>98</v>
+      </c>
+      <c r="X46">
+        <v>98</v>
+      </c>
+      <c r="Y46">
+        <v>98</v>
+      </c>
+      <c r="Z46">
+        <v>98</v>
+      </c>
+      <c r="AA46">
+        <v>98</v>
+      </c>
+      <c r="AB46">
+        <v>98</v>
+      </c>
+      <c r="AC46">
+        <v>98</v>
+      </c>
+      <c r="AD46">
+        <v>98</v>
+      </c>
+      <c r="AE46">
+        <v>98</v>
+      </c>
+      <c r="AF46">
+        <v>98</v>
+      </c>
+      <c r="AG46">
+        <v>98</v>
+      </c>
+      <c r="AH46">
+        <v>98</v>
+      </c>
+      <c r="AI46">
+        <v>98</v>
+      </c>
+      <c r="AJ46">
+        <v>98</v>
+      </c>
+      <c r="AK46">
+        <v>98</v>
+      </c>
+      <c r="AL46">
+        <v>98</v>
+      </c>
+      <c r="AM46">
+        <v>98</v>
+      </c>
+      <c r="AN46">
+        <v>98</v>
+      </c>
+      <c r="AO46">
+        <v>98</v>
+      </c>
+      <c r="AP46">
+        <v>98</v>
+      </c>
+      <c r="AQ46">
+        <v>98</v>
+      </c>
+      <c r="AR46">
+        <v>98</v>
+      </c>
+      <c r="AS46">
+        <v>98</v>
+      </c>
+      <c r="AT46">
+        <v>98</v>
+      </c>
+      <c r="AU46">
+        <v>98</v>
+      </c>
+      <c r="AV46">
+        <v>98</v>
+      </c>
+      <c r="AW46">
+        <v>98</v>
+      </c>
+      <c r="AX46">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>98</v>
+      </c>
+      <c r="B47">
+        <v>98</v>
+      </c>
+      <c r="C47">
+        <v>98</v>
+      </c>
+      <c r="D47">
+        <v>98</v>
+      </c>
+      <c r="E47">
+        <v>98</v>
+      </c>
+      <c r="F47">
+        <v>98</v>
+      </c>
+      <c r="G47">
+        <v>98</v>
+      </c>
+      <c r="H47">
+        <v>98</v>
+      </c>
+      <c r="I47">
+        <v>98</v>
+      </c>
+      <c r="J47">
+        <v>98</v>
+      </c>
+      <c r="K47">
+        <v>98</v>
+      </c>
+      <c r="L47">
+        <v>98</v>
+      </c>
+      <c r="M47">
+        <v>98</v>
+      </c>
+      <c r="N47">
+        <v>98</v>
+      </c>
+      <c r="O47">
+        <v>98</v>
+      </c>
+      <c r="P47">
+        <v>98</v>
+      </c>
+      <c r="Q47">
+        <v>98</v>
+      </c>
+      <c r="R47">
+        <v>98</v>
+      </c>
+      <c r="S47">
+        <v>98</v>
+      </c>
+      <c r="T47">
+        <v>98</v>
+      </c>
+      <c r="U47">
+        <v>98</v>
+      </c>
+      <c r="V47">
+        <v>98</v>
+      </c>
+      <c r="W47">
+        <v>98</v>
+      </c>
+      <c r="X47">
+        <v>98</v>
+      </c>
+      <c r="Y47">
+        <v>98</v>
+      </c>
+      <c r="Z47">
+        <v>98</v>
+      </c>
+      <c r="AA47">
+        <v>98</v>
+      </c>
+      <c r="AB47">
+        <v>98</v>
+      </c>
+      <c r="AC47">
+        <v>98</v>
+      </c>
+      <c r="AD47">
+        <v>98</v>
+      </c>
+      <c r="AE47">
+        <v>98</v>
+      </c>
+      <c r="AF47">
+        <v>98</v>
+      </c>
+      <c r="AG47">
+        <v>98</v>
+      </c>
+      <c r="AH47">
+        <v>98</v>
+      </c>
+      <c r="AI47">
+        <v>98</v>
+      </c>
+      <c r="AJ47">
+        <v>98</v>
+      </c>
+      <c r="AK47">
+        <v>98</v>
+      </c>
+      <c r="AL47">
+        <v>98</v>
+      </c>
+      <c r="AM47">
+        <v>98</v>
+      </c>
+      <c r="AN47">
+        <v>98</v>
+      </c>
+      <c r="AO47">
+        <v>98</v>
+      </c>
+      <c r="AP47">
+        <v>98</v>
+      </c>
+      <c r="AQ47">
+        <v>98</v>
+      </c>
+      <c r="AR47">
+        <v>98</v>
+      </c>
+      <c r="AS47">
+        <v>98</v>
+      </c>
+      <c r="AT47">
+        <v>98</v>
+      </c>
+      <c r="AU47">
+        <v>98</v>
+      </c>
+      <c r="AV47">
+        <v>98</v>
+      </c>
+      <c r="AW47">
+        <v>98</v>
+      </c>
+      <c r="AX47">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>98</v>
+      </c>
+      <c r="B48">
+        <v>98</v>
+      </c>
+      <c r="C48">
+        <v>98</v>
+      </c>
+      <c r="D48">
+        <v>98</v>
+      </c>
+      <c r="E48">
+        <v>98</v>
+      </c>
+      <c r="F48">
+        <v>98</v>
+      </c>
+      <c r="G48">
+        <v>98</v>
+      </c>
+      <c r="H48">
+        <v>98</v>
+      </c>
+      <c r="I48">
+        <v>98</v>
+      </c>
+      <c r="J48">
+        <v>98</v>
+      </c>
+      <c r="K48">
+        <v>98</v>
+      </c>
+      <c r="L48">
+        <v>98</v>
+      </c>
+      <c r="M48">
+        <v>98</v>
+      </c>
+      <c r="N48">
+        <v>98</v>
+      </c>
+      <c r="O48">
+        <v>98</v>
+      </c>
+      <c r="P48">
+        <v>98</v>
+      </c>
+      <c r="Q48">
+        <v>98</v>
+      </c>
+      <c r="R48">
+        <v>98</v>
+      </c>
+      <c r="S48">
+        <v>98</v>
+      </c>
+      <c r="T48">
+        <v>98</v>
+      </c>
+      <c r="U48">
+        <v>98</v>
+      </c>
+      <c r="V48">
+        <v>98</v>
+      </c>
+      <c r="W48">
+        <v>98</v>
+      </c>
+      <c r="X48">
+        <v>98</v>
+      </c>
+      <c r="Y48">
+        <v>98</v>
+      </c>
+      <c r="Z48">
+        <v>98</v>
+      </c>
+      <c r="AA48">
+        <v>98</v>
+      </c>
+      <c r="AB48">
+        <v>98</v>
+      </c>
+      <c r="AC48">
+        <v>98</v>
+      </c>
+      <c r="AD48">
+        <v>98</v>
+      </c>
+      <c r="AE48">
+        <v>98</v>
+      </c>
+      <c r="AF48">
+        <v>98</v>
+      </c>
+      <c r="AG48">
+        <v>98</v>
+      </c>
+      <c r="AH48">
+        <v>98</v>
+      </c>
+      <c r="AI48">
+        <v>98</v>
+      </c>
+      <c r="AJ48">
+        <v>98</v>
+      </c>
+      <c r="AK48">
+        <v>98</v>
+      </c>
+      <c r="AL48">
+        <v>98</v>
+      </c>
+      <c r="AM48">
+        <v>98</v>
+      </c>
+      <c r="AN48">
+        <v>98</v>
+      </c>
+      <c r="AO48">
+        <v>98</v>
+      </c>
+      <c r="AP48">
+        <v>98</v>
+      </c>
+      <c r="AQ48">
+        <v>98</v>
+      </c>
+      <c r="AR48">
+        <v>98</v>
+      </c>
+      <c r="AS48">
+        <v>98</v>
+      </c>
+      <c r="AT48">
+        <v>98</v>
+      </c>
+      <c r="AU48">
+        <v>98</v>
+      </c>
+      <c r="AV48">
+        <v>98</v>
+      </c>
+      <c r="AW48">
+        <v>98</v>
+      </c>
+      <c r="AX48">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>98</v>
+      </c>
+      <c r="B49">
+        <v>98</v>
+      </c>
+      <c r="C49">
+        <v>98</v>
+      </c>
+      <c r="D49">
+        <v>98</v>
+      </c>
+      <c r="E49">
+        <v>98</v>
+      </c>
+      <c r="F49">
+        <v>98</v>
+      </c>
+      <c r="G49">
+        <v>98</v>
+      </c>
+      <c r="H49">
+        <v>98</v>
+      </c>
+      <c r="I49">
+        <v>98</v>
+      </c>
+      <c r="J49">
+        <v>98</v>
+      </c>
+      <c r="K49">
+        <v>98</v>
+      </c>
+      <c r="L49">
+        <v>98</v>
+      </c>
+      <c r="M49">
+        <v>98</v>
+      </c>
+      <c r="N49">
+        <v>98</v>
+      </c>
+      <c r="O49">
+        <v>98</v>
+      </c>
+      <c r="P49">
+        <v>98</v>
+      </c>
+      <c r="Q49">
+        <v>98</v>
+      </c>
+      <c r="R49">
+        <v>98</v>
+      </c>
+      <c r="S49">
+        <v>98</v>
+      </c>
+      <c r="T49">
+        <v>98</v>
+      </c>
+      <c r="U49">
+        <v>98</v>
+      </c>
+      <c r="V49">
+        <v>98</v>
+      </c>
+      <c r="W49">
+        <v>98</v>
+      </c>
+      <c r="X49">
+        <v>98</v>
+      </c>
+      <c r="Y49">
+        <v>98</v>
+      </c>
+      <c r="Z49">
+        <v>98</v>
+      </c>
+      <c r="AA49">
+        <v>98</v>
+      </c>
+      <c r="AB49">
+        <v>98</v>
+      </c>
+      <c r="AC49">
+        <v>98</v>
+      </c>
+      <c r="AD49">
+        <v>98</v>
+      </c>
+      <c r="AE49">
+        <v>98</v>
+      </c>
+      <c r="AF49">
+        <v>98</v>
+      </c>
+      <c r="AG49">
+        <v>98</v>
+      </c>
+      <c r="AH49">
+        <v>98</v>
+      </c>
+      <c r="AI49">
+        <v>98</v>
+      </c>
+      <c r="AJ49">
+        <v>98</v>
+      </c>
+      <c r="AK49">
+        <v>98</v>
+      </c>
+      <c r="AL49">
+        <v>98</v>
+      </c>
+      <c r="AM49">
+        <v>98</v>
+      </c>
+      <c r="AN49">
+        <v>98</v>
+      </c>
+      <c r="AO49">
+        <v>98</v>
+      </c>
+      <c r="AP49">
+        <v>98</v>
+      </c>
+      <c r="AQ49">
+        <v>98</v>
+      </c>
+      <c r="AR49">
+        <v>98</v>
+      </c>
+      <c r="AS49">
+        <v>98</v>
+      </c>
+      <c r="AT49">
+        <v>98</v>
+      </c>
+      <c r="AU49">
+        <v>98</v>
+      </c>
+      <c r="AV49">
+        <v>98</v>
+      </c>
+      <c r="AW49">
+        <v>98</v>
+      </c>
+      <c r="AX49">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>98</v>
+      </c>
+      <c r="B50">
+        <v>98</v>
+      </c>
+      <c r="C50">
+        <v>98</v>
+      </c>
+      <c r="D50">
+        <v>98</v>
+      </c>
+      <c r="E50">
+        <v>98</v>
+      </c>
+      <c r="F50">
+        <v>98</v>
+      </c>
+      <c r="G50">
+        <v>98</v>
+      </c>
+      <c r="H50">
+        <v>98</v>
+      </c>
+      <c r="I50">
+        <v>98</v>
+      </c>
+      <c r="J50">
+        <v>98</v>
+      </c>
+      <c r="K50">
+        <v>98</v>
+      </c>
+      <c r="L50">
+        <v>98</v>
+      </c>
+      <c r="M50">
+        <v>98</v>
+      </c>
+      <c r="N50">
+        <v>98</v>
+      </c>
+      <c r="O50">
+        <v>98</v>
+      </c>
+      <c r="P50">
+        <v>98</v>
+      </c>
+      <c r="Q50">
+        <v>98</v>
+      </c>
+      <c r="R50">
+        <v>98</v>
+      </c>
+      <c r="S50">
+        <v>98</v>
+      </c>
+      <c r="T50">
+        <v>98</v>
+      </c>
+      <c r="U50">
+        <v>98</v>
+      </c>
+      <c r="V50">
+        <v>98</v>
+      </c>
+      <c r="W50">
+        <v>98</v>
+      </c>
+      <c r="X50">
+        <v>98</v>
+      </c>
+      <c r="Y50">
+        <v>98</v>
+      </c>
+      <c r="Z50">
+        <v>98</v>
+      </c>
+      <c r="AA50">
+        <v>98</v>
+      </c>
+      <c r="AB50">
+        <v>98</v>
+      </c>
+      <c r="AC50">
+        <v>98</v>
+      </c>
+      <c r="AD50">
+        <v>98</v>
+      </c>
+      <c r="AE50">
+        <v>98</v>
+      </c>
+      <c r="AF50">
+        <v>98</v>
+      </c>
+      <c r="AG50">
+        <v>98</v>
+      </c>
+      <c r="AH50">
+        <v>98</v>
+      </c>
+      <c r="AI50">
+        <v>98</v>
+      </c>
+      <c r="AJ50">
+        <v>98</v>
+      </c>
+      <c r="AK50">
+        <v>98</v>
+      </c>
+      <c r="AL50">
+        <v>98</v>
+      </c>
+      <c r="AM50">
+        <v>98</v>
+      </c>
+      <c r="AN50">
+        <v>98</v>
+      </c>
+      <c r="AO50">
+        <v>98</v>
+      </c>
+      <c r="AP50">
+        <v>98</v>
+      </c>
+      <c r="AQ50">
+        <v>98</v>
+      </c>
+      <c r="AR50">
+        <v>98</v>
+      </c>
+      <c r="AS50">
+        <v>98</v>
+      </c>
+      <c r="AT50">
+        <v>98</v>
+      </c>
+      <c r="AU50">
+        <v>98</v>
+      </c>
+      <c r="AV50">
+        <v>98</v>
+      </c>
+      <c r="AW50">
+        <v>98</v>
+      </c>
+      <c r="AX50">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A30:AO40 A1:AN29">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+  <conditionalFormatting sqref="A1:AN29 A30:AO40">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:AO40 A1:AN29">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+  <conditionalFormatting sqref="A1:AN29 A30:AO40">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:AO40 A1:AN29">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="A1:AN29 A30:AO40">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:AO40 A1:AN29">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="A1:AN29 A30:AO40">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:AO40 A1:AN29">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="A1:AN29 A30:AO40">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:AO40 A1:AN29">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="A1:AN29 A30:AO40">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Star Regein/Star Regein/Earth.xlsx
+++ b/Star Regein/Star Regein/Earth.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\恐れすぎた幽鬼\Star Regein\Star Regein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\恐れすぎた幽鬼\Star Regein\Star Regein\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -72,113 +72,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color theme="0"/>
@@ -723,7 +617,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:AX50"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2128,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -3380,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -4259,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -8331,49 +8225,49 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:AN29 A30:AO40">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AN29 A30:AO40">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AN29 A30:AO40">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AN29 A30:AO40">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AN29 A30:AO40">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AN29 A30:AO40">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Star Regein/Star Regein/Earth.xlsx
+++ b/Star Regein/Star Regein/Earth.xlsx
@@ -617,7 +617,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>

--- a/Star Regein/Star Regein/Earth.xlsx
+++ b/Star Regein/Star Regein/Earth.xlsx
@@ -617,7 +617,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P10">
         <v>0</v>

--- a/Star Regein/Star Regein/Earth.xlsx
+++ b/Star Regein/Star Regein/Earth.xlsx
@@ -195,7 +195,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="728230" y="432089"/>
-          <a:ext cx="4524376" cy="3800475"/>
+          <a:ext cx="4628285" cy="3800475"/>
           <a:chOff x="647700" y="457200"/>
           <a:chExt cx="4143376" cy="3762375"/>
         </a:xfrm>
@@ -621,6 +621,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A1">
@@ -982,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1104,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1116,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1149,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1426,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1548,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1915,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -2013,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2034,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2210,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -2484,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2657,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -3077,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3134,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -3250,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -3268,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -3891,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA22">
         <v>0</v>
@@ -4129,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4174,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -4305,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Star Regein/Star Regein/Earth.xlsx
+++ b/Star Regein/Star Regein/Earth.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\恐れすぎた幽鬼\Star Regein\Star Regein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\sterRegein\Star Regein\Star Regein\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -194,8 +194,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="728230" y="432089"/>
-          <a:ext cx="4628285" cy="3800475"/>
+          <a:off x="701123" y="433595"/>
+          <a:ext cx="4433267" cy="3817040"/>
           <a:chOff x="647700" y="457200"/>
           <a:chExt cx="4143376" cy="3762375"/>
         </a:xfrm>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
